--- a/Cleaning 2C Data.xlsx
+++ b/Cleaning 2C Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samra\Documents\My Documents\Uni\4th Year\Honours Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F16D92F-1FB2-4C79-A0AC-48E2BB27B6AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A04331-5C47-428F-9511-565BA7534615}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15684" yWindow="11052" windowWidth="12960" windowHeight="10692" xr2:uid="{4E8BDCE4-7AB0-40D5-8A4C-A689BB2A0FC0}"/>
+    <workbookView xWindow="-6840" yWindow="9012" windowWidth="12960" windowHeight="10692" xr2:uid="{4E8BDCE4-7AB0-40D5-8A4C-A689BB2A0FC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2563,7 +2563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2596,7 +2596,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2627,24 +2626,30 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2962,13 +2967,13 @@
   <dimension ref="A1:Q476"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD40"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
@@ -3002,7 +3007,7 @@
       <c r="H1" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="47" t="s">
         <v>644</v>
       </c>
       <c r="L1" t="s">
@@ -3060,7 +3065,7 @@
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>16</v>
       </c>
@@ -3089,7 +3094,7 @@
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>18</v>
       </c>
@@ -3118,7 +3123,7 @@
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>23</v>
       </c>
@@ -3137,11 +3142,11 @@
         <f>(E6+E7)/2</f>
         <v>12.525</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="48">
         <f>_xlfn.VAR.S(E6:E7)</f>
         <v>15.401250000000005</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="53">
         <v>12.525</v>
       </c>
       <c r="L6" s="24" t="s">
@@ -3153,7 +3158,7 @@
       <c r="P6" s="24"/>
       <c r="Q6" s="24"/>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3170,7 +3175,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43</v>
       </c>
@@ -3189,18 +3194,18 @@
         <f>(E8+E9)/2</f>
         <v>10.29</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="48">
         <f>_xlfn.VAR.S(E8:E9)</f>
         <v>35.11220000000003</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="53">
         <v>10.29</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="36" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3214,7 +3219,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>48</v>
       </c>
@@ -3235,7 +3240,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>49</v>
       </c>
@@ -3257,7 +3262,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="32">
+      <c r="A12" s="12">
         <v>51</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -3296,7 +3301,7 @@
         <v>34.909999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>56</v>
       </c>
@@ -3325,8 +3330,8 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3337,8 +3342,8 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>68</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -3353,12 +3358,12 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="61"/>
+      <c r="H16" s="60"/>
       <c r="I16">
         <v>12.1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>92</v>
       </c>
@@ -3379,16 +3384,16 @@
         <f>(E17+E18)/2</f>
         <v>25.984999999999999</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="48">
         <f>_xlfn.VAR.S(E17:E18)</f>
         <v>101.24645000000032</v>
       </c>
-      <c r="I17" s="54">
+      <c r="I17" s="53">
         <v>25.984999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3401,7 +3406,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>95</v>
       </c>
@@ -3420,16 +3425,16 @@
         <f>(E19+E20)/2</f>
         <v>27.55</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="48">
         <f>_xlfn.VAR.S(E19:E20)</f>
         <v>53.045000000000073</v>
       </c>
-      <c r="I19" s="54">
+      <c r="I19" s="53">
         <v>27.55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3442,45 +3447,45 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="40">
         <v>106</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="41">
         <v>16.899999999999999</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
       <c r="I21">
         <v>26.75</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="43">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="42"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="42">
         <v>26.75</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="32">
+      <c r="A23" s="12">
         <v>108</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -3505,7 +3510,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15" t="s">
         <v>296</v>
@@ -3523,8 +3528,8 @@
         <v>40.11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
         <v>111</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -3539,13 +3544,13 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="62"/>
+      <c r="H25" s="61"/>
       <c r="I25">
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
         <v>112</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -3560,7 +3565,7 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="62"/>
+      <c r="H26" s="61"/>
       <c r="I26">
         <v>60.34</v>
       </c>
@@ -3569,24 +3574,24 @@
       <c r="A27" s="63">
         <v>115</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="63">
         <v>1.01</v>
       </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64">
+      <c r="F27" s="62"/>
+      <c r="G27" s="62">
         <f>(E27+E28)/2</f>
         <v>1.0550000000000002</v>
       </c>
-      <c r="H27" s="64">
+      <c r="H27" s="62">
         <f>_xlfn.VAR.S(E27:E28)</f>
         <v>4.0500000000000076E-3</v>
       </c>
@@ -3595,38 +3600,38 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66" t="s">
+      <c r="A28" s="65"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67">
+      <c r="D28" s="64"/>
+      <c r="E28" s="65">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68" t="s">
+      <c r="A29" s="67"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="69">
+      <c r="D29" s="66"/>
+      <c r="E29" s="67">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
       <c r="I29">
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
         <v>122</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -3646,7 +3651,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>125</v>
       </c>
@@ -3667,16 +3672,16 @@
         <f>(E31+E32)/2</f>
         <v>47.805</v>
       </c>
-      <c r="H31" s="49">
+      <c r="H31" s="48">
         <f>_xlfn.VAR.S(E31:E32)</f>
         <v>62.608049999999821</v>
       </c>
-      <c r="I31" s="54">
+      <c r="I31" s="53">
         <v>47.805</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -3687,8 +3692,8 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -3701,7 +3706,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>138</v>
       </c>
@@ -3722,7 +3727,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>152</v>
       </c>
@@ -3743,7 +3748,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>157</v>
       </c>
@@ -3772,8 +3777,8 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -3786,8 +3791,8 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
         <v>203</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -3807,8 +3812,8 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
         <v>207</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -3828,7 +3833,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>213</v>
       </c>
@@ -3850,7 +3855,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="32">
+      <c r="A41" s="12">
         <v>219</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -3875,7 +3880,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15" t="s">
         <v>299</v>
@@ -3893,8 +3898,8 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
         <v>220</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -3914,8 +3919,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
         <v>245</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -3935,7 +3940,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>257</v>
       </c>
@@ -3956,16 +3961,16 @@
         <f>(E45+E46)/2</f>
         <v>8.5950000000000006</v>
       </c>
-      <c r="H45" s="49">
+      <c r="H45" s="48">
         <f>_xlfn.VAR.S(E45:E46)</f>
         <v>15.848449999999957</v>
       </c>
-      <c r="I45" s="54">
+      <c r="I45" s="53">
         <v>8.5950000000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -3982,26 +3987,26 @@
       <c r="A47" s="63">
         <v>261</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="D47" s="64" t="s">
+      <c r="D47" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="64">
+      <c r="E47" s="62">
         <v>5.87</v>
       </c>
-      <c r="F47" s="64" t="s">
+      <c r="F47" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="64">
+      <c r="G47" s="62">
         <f>(E47+E48)/2</f>
         <v>6.125</v>
       </c>
-      <c r="H47" s="64">
+      <c r="H47" s="62">
         <f>_xlfn.VAR.S(E47:E48)</f>
         <v>0.13004999999999989</v>
       </c>
@@ -4010,62 +4015,62 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="66"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66" t="s">
+      <c r="A48" s="65"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66">
+      <c r="D48" s="64"/>
+      <c r="E48" s="64">
         <v>6.38</v>
       </c>
-      <c r="F48" s="66" t="s">
+      <c r="F48" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="68"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68" t="s">
+      <c r="A49" s="67"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68">
+      <c r="D49" s="66"/>
+      <c r="E49" s="66">
         <v>11</v>
       </c>
-      <c r="F49" s="68" t="s">
+      <c r="F49" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
       <c r="I49">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="70">
+      <c r="A50" s="76">
         <v>262</v>
       </c>
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="71" t="s">
+      <c r="C50" s="68" t="s">
         <v>297</v>
       </c>
-      <c r="D50" s="71" t="s">
+      <c r="D50" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="E50" s="71">
+      <c r="E50" s="68">
         <v>4.2</v>
       </c>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71">
+      <c r="F50" s="68"/>
+      <c r="G50" s="68">
         <f>(E50+E51)/2</f>
         <v>5.07</v>
       </c>
-      <c r="H50" s="71">
+      <c r="H50" s="68">
         <f>_xlfn.VAR.S(E50:E51)</f>
         <v>1.5138000000000034</v>
       </c>
@@ -4074,35 +4079,35 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="72"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72" t="s">
+      <c r="A51" s="77"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69" t="s">
         <v>297</v>
       </c>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72">
+      <c r="D51" s="69"/>
+      <c r="E51" s="69">
         <v>5.94</v>
       </c>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="72"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72" t="s">
+      <c r="A52" s="77"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69" t="s">
         <v>299</v>
       </c>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72">
+      <c r="D52" s="69"/>
+      <c r="E52" s="69">
         <v>8.66</v>
       </c>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72">
+      <c r="F52" s="69"/>
+      <c r="G52" s="69">
         <f>(E52+E53)/2</f>
         <v>10.24</v>
       </c>
-      <c r="H52" s="72">
+      <c r="H52" s="69">
         <f>_xlfn.VAR.S(E52:E53)</f>
         <v>4.9927999999999884</v>
       </c>
@@ -4111,72 +4116,72 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="72"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72" t="s">
+      <c r="A53" s="77"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69" t="s">
         <v>299</v>
       </c>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72">
+      <c r="D53" s="69"/>
+      <c r="E53" s="69">
         <v>11.82</v>
       </c>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="72"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72" t="s">
+      <c r="A54" s="77"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69" t="s">
         <v>298</v>
       </c>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72">
+      <c r="D54" s="69"/>
+      <c r="E54" s="69">
         <v>15.71</v>
       </c>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
       <c r="I54">
         <v>15.71</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="72"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72" t="s">
+      <c r="A55" s="77"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69" t="s">
         <v>301</v>
       </c>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72">
+      <c r="D55" s="69"/>
+      <c r="E55" s="69">
         <v>15.91</v>
       </c>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
       <c r="I55">
         <v>15.91</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="73"/>
-      <c r="B56" s="73"/>
-      <c r="C56" s="73" t="s">
+      <c r="A56" s="78"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70" t="s">
         <v>302</v>
       </c>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73">
+      <c r="D56" s="70"/>
+      <c r="E56" s="70">
         <v>24.58</v>
       </c>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
       <c r="I56">
         <v>24.58</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="33">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="32">
         <v>284</v>
       </c>
       <c r="B57" s="19" t="s">
@@ -4196,7 +4201,7 @@
         <v>18.07</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>289</v>
       </c>
@@ -4215,16 +4220,16 @@
         <f>(E58+E59)/2</f>
         <v>15.170000000000002</v>
       </c>
-      <c r="H58" s="49">
+      <c r="H58" s="48">
         <f>_xlfn.VAR.S(E58:E59)</f>
         <v>6.2657999999999561</v>
       </c>
-      <c r="I58" s="54">
+      <c r="I58" s="53">
         <v>15.17</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -4236,70 +4241,70 @@
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="74">
+      <c r="A60" s="79">
         <v>292</v>
       </c>
-      <c r="B60" s="75" t="s">
+      <c r="B60" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="75" t="s">
+      <c r="C60" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="D60" s="75" t="s">
+      <c r="D60" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="E60" s="75">
+      <c r="E60" s="71">
         <v>8.5399999999999991</v>
       </c>
-      <c r="F60" s="75" t="s">
+      <c r="F60" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="G60" s="75"/>
-      <c r="H60" s="75"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
       <c r="I60">
         <v>8.5399999999999991</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="76"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76" t="s">
+      <c r="A61" s="80"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76">
+      <c r="D61" s="72"/>
+      <c r="E61" s="72">
         <v>12.2</v>
       </c>
-      <c r="F61" s="76" t="s">
+      <c r="F61" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
       <c r="I61">
         <v>12.2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="77"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="77" t="s">
+      <c r="A62" s="81"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="73" t="s">
         <v>299</v>
       </c>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77">
+      <c r="D62" s="73"/>
+      <c r="E62" s="73">
         <v>18.11</v>
       </c>
-      <c r="F62" s="77" t="s">
+      <c r="F62" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
       <c r="I62">
         <v>18.11</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="32">
+      <c r="A63" s="12">
         <v>313</v>
       </c>
       <c r="B63" s="14" t="s">
@@ -4324,7 +4329,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15" t="s">
         <v>299</v>
@@ -4342,8 +4347,8 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="11">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
         <v>326</v>
       </c>
       <c r="B65" s="11" t="s">
@@ -4363,8 +4368,8 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="33">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="32">
         <v>328</v>
       </c>
       <c r="B66" s="19" t="s">
@@ -4384,8 +4389,8 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="10">
         <v>329</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -4405,8 +4410,8 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
         <v>344</v>
       </c>
       <c r="B68" t="s">
@@ -4423,8 +4428,8 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="11">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
         <v>347</v>
       </c>
       <c r="B69" s="11" t="s">
@@ -4444,8 +4449,8 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="33">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="32">
         <v>362</v>
       </c>
       <c r="B70" s="19" t="s">
@@ -4465,8 +4470,8 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="10">
         <v>368</v>
       </c>
       <c r="B71" s="9" t="s">
@@ -4486,8 +4491,8 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="10">
         <v>373</v>
       </c>
       <c r="B72" s="9" t="s">
@@ -4507,7 +4512,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>389</v>
       </c>
@@ -4535,8 +4540,8 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6"/>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="3"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -4549,7 +4554,7 @@
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>390</v>
       </c>
@@ -4575,8 +4580,8 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6"/>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="3"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -4589,8 +4594,8 @@
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="10">
         <v>391</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -4610,8 +4615,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="10">
         <v>395</v>
       </c>
       <c r="B78" s="9" t="s">
@@ -4631,8 +4636,8 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="10">
         <v>398</v>
       </c>
       <c r="B79" s="9" t="s">
@@ -4652,8 +4657,8 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="10">
         <v>399</v>
       </c>
       <c r="B80" s="9" t="s">
@@ -4673,7 +4678,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
         <v>406</v>
       </c>
@@ -4694,7 +4699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
         <v>415</v>
       </c>
@@ -4715,8 +4720,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="10">
         <v>417</v>
       </c>
       <c r="B83" s="9" t="s">
@@ -4736,7 +4741,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="18">
         <v>462</v>
       </c>
@@ -4758,7 +4763,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="32">
+      <c r="A85" s="12">
         <v>466</v>
       </c>
       <c r="B85" s="14" t="s">
@@ -4783,7 +4788,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="15"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15" t="s">
         <v>296</v>
@@ -4801,7 +4806,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>473</v>
       </c>
@@ -4828,8 +4833,8 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="6"/>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="3"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -4843,7 +4848,7 @@
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="32">
+      <c r="A89" s="12">
         <v>482</v>
       </c>
       <c r="B89" s="14" t="s">
@@ -4873,7 +4878,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="15"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15" t="s">
         <v>299</v>
@@ -4888,8 +4893,8 @@
       <c r="G90" s="15"/>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="10">
         <v>497</v>
       </c>
       <c r="B91" s="9" t="s">
@@ -4909,8 +4914,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="11">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
         <v>501</v>
       </c>
       <c r="B92" s="11" t="s">
@@ -4930,8 +4935,8 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="11">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
         <v>504</v>
       </c>
       <c r="B93" s="11" t="s">
@@ -4951,8 +4956,8 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="10">
         <v>505</v>
       </c>
       <c r="B94" s="9" t="s">
@@ -4972,8 +4977,8 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="19">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="32">
         <v>529</v>
       </c>
       <c r="B95" s="19" t="s">
@@ -4993,11 +4998,11 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="34">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="82">
         <v>603</v>
       </c>
-      <c r="B96" s="34" t="s">
+      <c r="B96" s="33" t="s">
         <v>161</v>
       </c>
       <c r="C96" s="22"/>
@@ -5014,7 +5019,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>607</v>
       </c>
@@ -5041,8 +5046,8 @@
         <v>32.25</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="6"/>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="3"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -5053,8 +5058,8 @@
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="19">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="32">
         <v>613</v>
       </c>
       <c r="B99" s="19" t="s">
@@ -5075,7 +5080,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="32">
+      <c r="A100" s="12">
         <v>618</v>
       </c>
       <c r="B100" s="14" t="s">
@@ -5100,7 +5105,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="15"/>
+      <c r="A101" s="13"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15" t="s">
         <v>299</v>
@@ -5116,7 +5121,7 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>621</v>
       </c>
@@ -5143,8 +5148,8 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="6"/>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="3"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -5155,7 +5160,7 @@
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>635</v>
       </c>
@@ -5184,8 +5189,8 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="6"/>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="3"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -5198,8 +5203,8 @@
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="10">
         <v>653</v>
       </c>
       <c r="B106" s="9" t="s">
@@ -5219,8 +5224,8 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="17">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="18">
         <v>662</v>
       </c>
       <c r="B107" s="17" t="s">
@@ -5240,8 +5245,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="10">
         <v>665</v>
       </c>
       <c r="B108" s="9" t="s">
@@ -5262,125 +5267,125 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="74">
+      <c r="A109" s="79">
         <v>669</v>
       </c>
-      <c r="B109" s="75" t="s">
+      <c r="B109" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="C109" s="75" t="s">
+      <c r="C109" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="D109" s="75" t="s">
+      <c r="D109" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="E109" s="75">
+      <c r="E109" s="71">
         <v>1.53</v>
       </c>
-      <c r="F109" s="75" t="s">
+      <c r="F109" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="G109" s="75"/>
-      <c r="H109" s="75"/>
+      <c r="G109" s="71"/>
+      <c r="H109" s="71"/>
       <c r="I109">
         <v>1.53</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="76"/>
-      <c r="B110" s="76"/>
-      <c r="C110" s="76" t="s">
+      <c r="A110" s="80"/>
+      <c r="B110" s="72"/>
+      <c r="C110" s="72" t="s">
         <v>299</v>
       </c>
-      <c r="D110" s="76"/>
-      <c r="E110" s="76">
+      <c r="D110" s="72"/>
+      <c r="E110" s="72">
         <v>3.26</v>
       </c>
-      <c r="F110" s="76" t="s">
+      <c r="F110" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="G110" s="76"/>
-      <c r="H110" s="76"/>
+      <c r="G110" s="72"/>
+      <c r="H110" s="72"/>
       <c r="I110">
         <v>3.26</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="77"/>
-      <c r="B111" s="77"/>
-      <c r="C111" s="77" t="s">
+      <c r="A111" s="81"/>
+      <c r="B111" s="73"/>
+      <c r="C111" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="D111" s="77"/>
-      <c r="E111" s="77">
+      <c r="D111" s="73"/>
+      <c r="E111" s="73">
         <v>4.7</v>
       </c>
-      <c r="F111" s="77"/>
-      <c r="G111" s="77"/>
-      <c r="H111" s="77"/>
+      <c r="F111" s="73"/>
+      <c r="G111" s="73"/>
+      <c r="H111" s="73"/>
       <c r="I111">
         <v>4.7</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="74">
+      <c r="A112" s="79">
         <v>705</v>
       </c>
-      <c r="B112" s="75" t="s">
+      <c r="B112" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="C112" s="75" t="s">
+      <c r="C112" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="D112" s="75" t="s">
+      <c r="D112" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="E112" s="75">
+      <c r="E112" s="71">
         <v>10.54</v>
       </c>
-      <c r="F112" s="75"/>
-      <c r="G112" s="75"/>
-      <c r="H112" s="75"/>
+      <c r="F112" s="71"/>
+      <c r="G112" s="71"/>
+      <c r="H112" s="71"/>
       <c r="I112">
         <v>10.54</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="76"/>
-      <c r="B113" s="76"/>
-      <c r="C113" s="76" t="s">
+      <c r="A113" s="80"/>
+      <c r="B113" s="72"/>
+      <c r="C113" s="72" t="s">
         <v>299</v>
       </c>
-      <c r="D113" s="76"/>
-      <c r="E113" s="76">
+      <c r="D113" s="72"/>
+      <c r="E113" s="72">
         <v>20.2</v>
       </c>
-      <c r="F113" s="76"/>
-      <c r="G113" s="76"/>
-      <c r="H113" s="76"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="72"/>
+      <c r="H113" s="72"/>
       <c r="I113">
         <v>20.2</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="77"/>
-      <c r="B114" s="77"/>
-      <c r="C114" s="77" t="s">
+      <c r="A114" s="81"/>
+      <c r="B114" s="73"/>
+      <c r="C114" s="73" t="s">
         <v>301</v>
       </c>
-      <c r="D114" s="77"/>
-      <c r="E114" s="77">
+      <c r="D114" s="73"/>
+      <c r="E114" s="73">
         <v>32.69</v>
       </c>
-      <c r="F114" s="77"/>
-      <c r="G114" s="77"/>
-      <c r="H114" s="77"/>
+      <c r="F114" s="73"/>
+      <c r="G114" s="73"/>
+      <c r="H114" s="73"/>
       <c r="I114">
         <v>32.69</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="10">
         <v>729</v>
       </c>
       <c r="B115" s="9" t="s">
@@ -5400,8 +5405,8 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="10">
         <v>735</v>
       </c>
       <c r="B116" s="11" t="s">
@@ -5421,8 +5426,8 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="10">
         <v>737</v>
       </c>
       <c r="B117" s="9" t="s">
@@ -5442,8 +5447,8 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="10">
         <v>768</v>
       </c>
       <c r="B118" s="9" t="s">
@@ -5463,8 +5468,8 @@
         <v>35.33</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="10">
         <v>791</v>
       </c>
       <c r="B119" s="9" t="s">
@@ -5484,18 +5489,18 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="40">
         <v>882</v>
       </c>
-      <c r="B120" s="35" t="s">
+      <c r="B120" s="34" t="s">
         <v>197</v>
       </c>
       <c r="C120" s="26"/>
-      <c r="D120" s="35" t="s">
+      <c r="D120" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="E120" s="35">
+      <c r="E120" s="34">
         <v>1.47</v>
       </c>
       <c r="F120" s="26" t="s">
@@ -5507,22 +5512,22 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="36"/>
-      <c r="B121" s="36"/>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="42"/>
+      <c r="B121" s="35"/>
       <c r="C121" s="27"/>
       <c r="D121" s="27"/>
-      <c r="E121" s="39">
+      <c r="E121" s="38">
         <v>3.12</v>
       </c>
-      <c r="F121" s="40" t="s">
+      <c r="F121" s="39" t="s">
         <v>199</v>
       </c>
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
     </row>
-    <row r="122" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="10">
         <v>883</v>
       </c>
       <c r="B122" s="9" t="s">
@@ -5542,8 +5547,8 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="10">
         <v>895</v>
       </c>
       <c r="B123" s="9" t="s">
@@ -5563,18 +5568,18 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="41">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="40">
         <v>942</v>
       </c>
-      <c r="B124" s="35" t="s">
+      <c r="B124" s="34" t="s">
         <v>204</v>
       </c>
       <c r="C124" s="26"/>
       <c r="D124" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="E124" s="35">
+      <c r="E124" s="34">
         <v>1.6</v>
       </c>
       <c r="F124" s="26"/>
@@ -5584,22 +5589,22 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="36"/>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="42"/>
       <c r="B125" s="27"/>
       <c r="C125" s="27"/>
       <c r="D125" s="27"/>
-      <c r="E125" s="39">
+      <c r="E125" s="38">
         <v>2.93</v>
       </c>
-      <c r="F125" s="40" t="s">
+      <c r="F125" s="39" t="s">
         <v>206</v>
       </c>
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
     </row>
-    <row r="126" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="10">
         <v>947</v>
       </c>
       <c r="B126" s="9" t="s">
@@ -5619,18 +5624,18 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="29">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="47">
         <v>962</v>
       </c>
-      <c r="B127" s="35" t="s">
+      <c r="B127" s="34" t="s">
         <v>209</v>
       </c>
       <c r="C127" s="26"/>
-      <c r="D127" s="35" t="s">
+      <c r="D127" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="E127" s="42">
+      <c r="E127" s="41">
         <v>6.6</v>
       </c>
       <c r="F127" s="26" t="s">
@@ -5642,12 +5647,12 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="29"/>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="47"/>
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
-      <c r="E128" s="38">
+      <c r="E128" s="37">
         <v>8.8000000000000007</v>
       </c>
       <c r="F128" s="28" t="s">
@@ -5656,22 +5661,22 @@
       <c r="G128" s="28"/>
       <c r="H128" s="28"/>
     </row>
-    <row r="129" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="36"/>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="42"/>
       <c r="B129" s="27"/>
       <c r="C129" s="27" t="s">
         <v>298</v>
       </c>
       <c r="D129" s="27"/>
-      <c r="E129" s="43">
+      <c r="E129" s="42">
         <v>8.8000000000000007</v>
       </c>
       <c r="F129" s="27"/>
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="19">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="32">
         <v>981</v>
       </c>
       <c r="B130" s="19" t="s">
@@ -5681,7 +5686,7 @@
       <c r="D130" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="E130" s="33">
+      <c r="E130" s="32">
         <v>0.94</v>
       </c>
       <c r="F130" s="19"/>
@@ -5691,8 +5696,8 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="17">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="18">
         <v>985</v>
       </c>
       <c r="B131" s="17" t="s">
@@ -5712,8 +5717,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="10">
         <v>986</v>
       </c>
       <c r="B132" s="9" t="s">
@@ -5733,7 +5738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="10">
         <v>1003</v>
       </c>
@@ -5754,18 +5759,18 @@
         <v>22.98</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="19">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="32">
         <v>1005</v>
       </c>
-      <c r="B134" s="33" t="s">
+      <c r="B134" s="32" t="s">
         <v>219</v>
       </c>
       <c r="C134" s="19"/>
-      <c r="D134" s="33" t="s">
+      <c r="D134" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="E134" s="33">
+      <c r="E134" s="32">
         <v>1.87</v>
       </c>
       <c r="F134" s="19"/>
@@ -5775,7 +5780,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="10">
         <v>1006</v>
       </c>
@@ -5796,8 +5801,8 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="10">
         <v>1037</v>
       </c>
       <c r="B136" s="10" t="s">
@@ -5817,8 +5822,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="10">
         <v>1038</v>
       </c>
       <c r="B137" s="10" t="s">
@@ -5838,8 +5843,8 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="10">
         <v>1050</v>
       </c>
       <c r="B138" s="10" t="s">
@@ -5859,8 +5864,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="10">
         <v>1071</v>
       </c>
       <c r="B139" s="10" t="s">
@@ -5870,7 +5875,7 @@
       <c r="D139" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E139" s="44">
+      <c r="E139" s="43">
         <v>4.5999999999999996</v>
       </c>
       <c r="F139" s="11" t="s">
@@ -5882,8 +5887,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="10">
         <v>1073</v>
       </c>
       <c r="B140" s="10" t="s">
@@ -5903,8 +5908,8 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="10">
         <v>1084</v>
       </c>
       <c r="B141" s="10" t="s">
@@ -5924,8 +5929,8 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="10">
         <v>1088</v>
       </c>
       <c r="B142" s="10" t="s">
@@ -5945,8 +5950,8 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="10">
         <v>1100</v>
       </c>
       <c r="B143" s="10" t="s">
@@ -5966,15 +5971,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="19">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="32">
         <v>1101</v>
       </c>
-      <c r="B144" s="33" t="s">
+      <c r="B144" s="32" t="s">
         <v>240</v>
       </c>
       <c r="C144" s="19"/>
-      <c r="D144" s="33" t="s">
+      <c r="D144" s="32" t="s">
         <v>241</v>
       </c>
       <c r="E144" s="19">
@@ -5987,8 +5992,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="10">
         <v>1139</v>
       </c>
       <c r="B145" s="10" t="s">
@@ -6008,8 +6013,8 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="10">
         <v>1160</v>
       </c>
       <c r="B146" s="10" t="s">
@@ -6029,8 +6034,8 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="10">
         <v>1163</v>
       </c>
       <c r="B147" s="10" t="s">
@@ -6050,8 +6055,8 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="10">
         <v>1242</v>
       </c>
       <c r="B148" s="10" t="s">
@@ -6072,7 +6077,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="32">
+      <c r="A149" s="12">
         <v>1246</v>
       </c>
       <c r="B149" s="12" t="s">
@@ -6095,7 +6100,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="15"/>
+      <c r="A150" s="13"/>
       <c r="B150" s="13"/>
       <c r="C150" s="15" t="s">
         <v>299</v>
@@ -6112,7 +6117,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="32">
+      <c r="A151" s="12">
         <v>1247</v>
       </c>
       <c r="B151" s="12" t="s">
@@ -6135,7 +6140,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="15"/>
+      <c r="A152" s="13"/>
       <c r="B152" s="15"/>
       <c r="C152" s="15" t="s">
         <v>301</v>
@@ -6152,64 +6157,64 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="74">
+      <c r="A153" s="79">
         <v>1248</v>
       </c>
-      <c r="B153" s="75" t="s">
+      <c r="B153" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="C153" s="75" t="s">
+      <c r="C153" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="D153" s="75" t="s">
+      <c r="D153" s="71" t="s">
         <v>254</v>
       </c>
-      <c r="E153" s="75">
+      <c r="E153" s="71">
         <v>4.32</v>
       </c>
-      <c r="F153" s="75"/>
-      <c r="G153" s="75"/>
-      <c r="H153" s="75"/>
+      <c r="F153" s="71"/>
+      <c r="G153" s="71"/>
+      <c r="H153" s="71"/>
       <c r="I153">
         <v>4.32</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="76"/>
-      <c r="B154" s="76"/>
-      <c r="C154" s="76" t="s">
+      <c r="A154" s="80"/>
+      <c r="B154" s="72"/>
+      <c r="C154" s="72" t="s">
         <v>298</v>
       </c>
-      <c r="D154" s="76"/>
-      <c r="E154" s="76">
+      <c r="D154" s="72"/>
+      <c r="E154" s="72">
         <v>6.42</v>
       </c>
-      <c r="F154" s="76"/>
-      <c r="G154" s="76"/>
-      <c r="H154" s="76"/>
+      <c r="F154" s="72"/>
+      <c r="G154" s="72"/>
+      <c r="H154" s="72"/>
       <c r="I154">
         <v>6.42</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="77"/>
-      <c r="B155" s="77"/>
-      <c r="C155" s="77" t="s">
+      <c r="A155" s="81"/>
+      <c r="B155" s="73"/>
+      <c r="C155" s="73" t="s">
         <v>301</v>
       </c>
-      <c r="D155" s="77"/>
-      <c r="E155" s="77">
+      <c r="D155" s="73"/>
+      <c r="E155" s="73">
         <v>8.8800000000000008</v>
       </c>
-      <c r="F155" s="77"/>
-      <c r="G155" s="77"/>
-      <c r="H155" s="77"/>
+      <c r="F155" s="73"/>
+      <c r="G155" s="73"/>
+      <c r="H155" s="73"/>
       <c r="I155">
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="10">
         <v>1255</v>
       </c>
       <c r="B156" s="11" t="s">
@@ -6229,7 +6234,7 @@
         <v>8.94</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>1257</v>
       </c>
@@ -6250,16 +6255,16 @@
         <f>(E157+E158+E159+E160)/4</f>
         <v>13.022500000000001</v>
       </c>
-      <c r="H157" s="49">
+      <c r="H157" s="48">
         <f>_xlfn.VAR.S(E157:E160)</f>
         <v>10.332024999999968</v>
       </c>
-      <c r="I157" s="54">
+      <c r="I157" s="53">
         <v>13.022</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="7"/>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="8"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
@@ -6272,8 +6277,8 @@
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="7"/>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="8"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
@@ -6286,8 +6291,8 @@
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="6"/>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="3"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -6299,7 +6304,7 @@
       <c r="H160" s="6"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A161" s="32">
+      <c r="A161" s="12">
         <v>1262</v>
       </c>
       <c r="B161" s="14" t="s">
@@ -6322,7 +6327,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A162" s="15"/>
+      <c r="A162" s="13"/>
       <c r="B162" s="15"/>
       <c r="C162" s="15" t="s">
         <v>301</v>
@@ -6341,7 +6346,7 @@
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" s="32">
+      <c r="A163" s="12">
         <v>1265</v>
       </c>
       <c r="B163" s="14" t="s">
@@ -6366,7 +6371,7 @@
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="15"/>
+      <c r="A164" s="13"/>
       <c r="B164" s="15"/>
       <c r="C164" s="15" t="s">
         <v>298</v>
@@ -6383,7 +6388,7 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165" s="32">
+      <c r="A165" s="12">
         <v>1266</v>
       </c>
       <c r="B165" s="14" t="s">
@@ -6406,7 +6411,7 @@
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="15"/>
+      <c r="A166" s="13"/>
       <c r="B166" s="15"/>
       <c r="C166" s="15" t="s">
         <v>330</v>
@@ -6423,7 +6428,7 @@
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A167" s="32">
+      <c r="A167" s="12">
         <v>1268</v>
       </c>
       <c r="B167" s="14" t="s">
@@ -6446,7 +6451,7 @@
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A168" s="15"/>
+      <c r="A168" s="13"/>
       <c r="B168" s="15"/>
       <c r="C168" s="15" t="s">
         <v>299</v>
@@ -6462,8 +6467,8 @@
         <v>13.01</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="10">
         <v>1272</v>
       </c>
       <c r="B169" s="9" t="s">
@@ -6483,8 +6488,8 @@
         <v>29.01</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="10">
         <v>1292</v>
       </c>
       <c r="B170" s="11" t="s">
@@ -6505,64 +6510,64 @@
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A171" s="74">
+      <c r="A171" s="79">
         <v>1314</v>
       </c>
-      <c r="B171" s="75" t="s">
+      <c r="B171" s="71" t="s">
         <v>276</v>
       </c>
-      <c r="C171" s="75" t="s">
+      <c r="C171" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="D171" s="75" t="s">
+      <c r="D171" s="71" t="s">
         <v>277</v>
       </c>
-      <c r="E171" s="75">
+      <c r="E171" s="71">
         <v>55.3</v>
       </c>
-      <c r="F171" s="75"/>
-      <c r="G171" s="75"/>
-      <c r="H171" s="75"/>
+      <c r="F171" s="71"/>
+      <c r="G171" s="71"/>
+      <c r="H171" s="71"/>
       <c r="I171">
         <v>55.3</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A172" s="76"/>
-      <c r="B172" s="76"/>
-      <c r="C172" s="76" t="s">
+      <c r="A172" s="80"/>
+      <c r="B172" s="72"/>
+      <c r="C172" s="72" t="s">
         <v>299</v>
       </c>
-      <c r="D172" s="76"/>
-      <c r="E172" s="76">
+      <c r="D172" s="72"/>
+      <c r="E172" s="72">
         <v>106.6</v>
       </c>
-      <c r="F172" s="76"/>
-      <c r="G172" s="76"/>
-      <c r="H172" s="76"/>
+      <c r="F172" s="72"/>
+      <c r="G172" s="72"/>
+      <c r="H172" s="72"/>
       <c r="I172">
         <v>106.6</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" s="77"/>
-      <c r="B173" s="77"/>
-      <c r="C173" s="77" t="s">
+      <c r="A173" s="81"/>
+      <c r="B173" s="73"/>
+      <c r="C173" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="D173" s="77"/>
-      <c r="E173" s="77">
+      <c r="D173" s="73"/>
+      <c r="E173" s="73">
         <v>157.4</v>
       </c>
-      <c r="F173" s="77"/>
-      <c r="G173" s="77"/>
-      <c r="H173" s="77"/>
+      <c r="F173" s="73"/>
+      <c r="G173" s="73"/>
+      <c r="H173" s="73"/>
       <c r="I173">
         <v>157.4</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" s="10">
         <v>1316</v>
       </c>
       <c r="B174" s="9" t="s">
@@ -6583,7 +6588,7 @@
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A175" s="32">
+      <c r="A175" s="12">
         <v>1317</v>
       </c>
       <c r="B175" s="14" t="s">
@@ -6606,7 +6611,7 @@
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A176" s="15"/>
+      <c r="A176" s="13"/>
       <c r="B176" s="15"/>
       <c r="C176" s="15" t="s">
         <v>296</v>
@@ -6622,8 +6627,8 @@
         <v>105.3</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="19">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" s="32">
         <v>1332</v>
       </c>
       <c r="B177" s="19" t="s">
@@ -6643,8 +6648,8 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" s="10">
         <v>1341</v>
       </c>
       <c r="B178" s="9" t="s">
@@ -6664,8 +6669,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" s="10">
         <v>1344</v>
       </c>
       <c r="B179" s="11" t="s">
@@ -6685,8 +6690,8 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" s="10">
         <v>1406</v>
       </c>
       <c r="B180" s="11" t="s">
@@ -6708,8 +6713,8 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" s="10">
         <v>1407</v>
       </c>
       <c r="B181" s="9" t="s">
@@ -6731,8 +6736,8 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="17">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" s="18">
         <v>1428</v>
       </c>
       <c r="B182" s="17" t="s">
@@ -6752,8 +6757,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="19">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" s="32">
         <v>1443</v>
       </c>
       <c r="B183" s="19" t="s">
@@ -6773,8 +6778,8 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="17">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" s="18">
         <v>1452</v>
       </c>
       <c r="B184" s="17" t="s">
@@ -6795,7 +6800,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" s="32">
+      <c r="A185" s="12">
         <v>1456</v>
       </c>
       <c r="B185" s="14" t="s">
@@ -6820,7 +6825,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="15"/>
+      <c r="A186" s="13"/>
       <c r="B186" s="15"/>
       <c r="C186" s="15" t="s">
         <v>299</v>
@@ -6838,8 +6843,8 @@
         <v>82.9</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" s="10">
         <v>1458</v>
       </c>
       <c r="B187" s="11" t="s">
@@ -6860,7 +6865,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A188" s="32">
+      <c r="A188" s="12">
         <v>1469</v>
       </c>
       <c r="B188" s="14" t="s">
@@ -6885,7 +6890,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A189" s="15"/>
+      <c r="A189" s="13"/>
       <c r="B189" s="15"/>
       <c r="C189" s="15" t="s">
         <v>299</v>
@@ -6903,8 +6908,8 @@
         <v>14.66</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="17">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" s="18">
         <v>1472</v>
       </c>
       <c r="B190" s="17" t="s">
@@ -6922,8 +6927,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="17">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" s="18">
         <v>1497</v>
       </c>
       <c r="B191" s="17" t="s">
@@ -6942,7 +6947,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A192" s="32">
+      <c r="A192" s="12">
         <v>1498</v>
       </c>
       <c r="B192" s="14" t="s">
@@ -6965,7 +6970,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="15"/>
+      <c r="A193" s="13"/>
       <c r="B193" s="15"/>
       <c r="C193" s="15" t="s">
         <v>296</v>
@@ -6982,7 +6987,7 @@
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A194" s="32">
+      <c r="A194" s="12">
         <v>1520</v>
       </c>
       <c r="B194" s="14" t="s">
@@ -7005,7 +7010,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195" s="15"/>
+      <c r="A195" s="13"/>
       <c r="B195" s="15"/>
       <c r="C195" s="15" t="s">
         <v>324</v>
@@ -7023,7 +7028,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>1530</v>
       </c>
@@ -7044,13 +7049,13 @@
         <f>(E196+E197)/2</f>
         <v>16.149999999999999</v>
       </c>
-      <c r="H196" s="49">
+      <c r="H196" s="48">
         <f>_xlfn.VAR.S(E196:E197)</f>
         <v>57.245000000000118</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="6"/>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" s="3"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
@@ -7064,68 +7069,68 @@
       <c r="H197" s="6"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" s="78">
+      <c r="A198" s="80">
         <v>1531</v>
       </c>
-      <c r="B198" s="76" t="s">
+      <c r="B198" s="72" t="s">
         <v>328</v>
       </c>
-      <c r="C198" s="76" t="s">
+      <c r="C198" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="D198" s="76" t="s">
+      <c r="D198" s="72" t="s">
         <v>327</v>
       </c>
-      <c r="E198" s="76">
+      <c r="E198" s="72">
         <v>11.1</v>
       </c>
-      <c r="F198" s="76" t="s">
+      <c r="F198" s="72" t="s">
         <v>331</v>
       </c>
-      <c r="G198" s="76"/>
-      <c r="H198" s="76"/>
+      <c r="G198" s="72"/>
+      <c r="H198" s="72"/>
       <c r="I198">
         <v>11.1</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A199" s="76"/>
-      <c r="B199" s="76"/>
-      <c r="C199" s="76" t="s">
+      <c r="A199" s="80"/>
+      <c r="B199" s="72"/>
+      <c r="C199" s="72" t="s">
         <v>330</v>
       </c>
-      <c r="D199" s="76"/>
-      <c r="E199" s="76">
+      <c r="D199" s="72"/>
+      <c r="E199" s="72">
         <v>22.2</v>
       </c>
-      <c r="F199" s="76" t="s">
+      <c r="F199" s="72" t="s">
         <v>331</v>
       </c>
-      <c r="G199" s="76"/>
-      <c r="H199" s="76"/>
+      <c r="G199" s="72"/>
+      <c r="H199" s="72"/>
       <c r="I199">
         <v>22.2</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A200" s="77"/>
-      <c r="B200" s="77"/>
-      <c r="C200" s="77" t="s">
+      <c r="A200" s="81"/>
+      <c r="B200" s="73"/>
+      <c r="C200" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="D200" s="77"/>
-      <c r="E200" s="77">
+      <c r="D200" s="73"/>
+      <c r="E200" s="73">
         <v>29.85</v>
       </c>
-      <c r="F200" s="77"/>
-      <c r="G200" s="77"/>
-      <c r="H200" s="77"/>
+      <c r="F200" s="73"/>
+      <c r="G200" s="73"/>
+      <c r="H200" s="73"/>
       <c r="I200">
         <v>29.85</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" s="10">
         <v>1532</v>
       </c>
       <c r="B201" s="9" t="s">
@@ -7145,8 +7150,8 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" s="10">
         <v>1539</v>
       </c>
       <c r="B202" s="9" t="s">
@@ -7167,64 +7172,62 @@
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A203" s="74">
-        <v>1548</v>
-      </c>
-      <c r="B203" s="75" t="s">
+      <c r="A203" s="79"/>
+      <c r="B203" s="71" t="s">
         <v>337</v>
       </c>
-      <c r="C203" s="75" t="s">
+      <c r="C203" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="D203" s="75" t="s">
+      <c r="D203" s="71" t="s">
         <v>336</v>
       </c>
-      <c r="E203" s="75">
+      <c r="E203" s="71">
         <v>42.7</v>
       </c>
-      <c r="F203" s="75" t="s">
+      <c r="F203" s="71" t="s">
         <v>338</v>
       </c>
-      <c r="G203" s="75"/>
-      <c r="H203" s="75"/>
+      <c r="G203" s="71"/>
+      <c r="H203" s="71"/>
       <c r="I203">
         <v>42.7</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A204" s="78"/>
-      <c r="B204" s="76"/>
-      <c r="C204" s="76" t="s">
+      <c r="A204" s="80"/>
+      <c r="B204" s="72"/>
+      <c r="C204" s="72" t="s">
         <v>296</v>
       </c>
-      <c r="D204" s="76"/>
-      <c r="E204" s="76">
+      <c r="D204" s="72"/>
+      <c r="E204" s="72">
         <v>64.7</v>
       </c>
-      <c r="F204" s="76" t="s">
+      <c r="F204" s="72" t="s">
         <v>339</v>
       </c>
-      <c r="G204" s="76"/>
-      <c r="H204" s="76"/>
+      <c r="G204" s="72"/>
+      <c r="H204" s="72"/>
       <c r="I204">
         <v>64.7</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A205" s="79"/>
-      <c r="B205" s="77"/>
-      <c r="C205" s="77" t="s">
+      <c r="A205" s="81"/>
+      <c r="B205" s="73"/>
+      <c r="C205" s="73" t="s">
         <v>299</v>
       </c>
-      <c r="D205" s="77"/>
-      <c r="E205" s="77">
+      <c r="D205" s="73"/>
+      <c r="E205" s="73">
         <v>93.2</v>
       </c>
-      <c r="F205" s="77" t="s">
+      <c r="F205" s="73" t="s">
         <v>340</v>
       </c>
-      <c r="G205" s="77"/>
-      <c r="H205" s="77"/>
+      <c r="G205" s="73"/>
+      <c r="H205" s="73"/>
       <c r="I205">
         <v>93.2</v>
       </c>
@@ -7233,24 +7236,24 @@
       <c r="A206" s="63">
         <v>1549</v>
       </c>
-      <c r="B206" s="64" t="s">
+      <c r="B206" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="C206" s="64" t="s">
+      <c r="C206" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="D206" s="64" t="s">
+      <c r="D206" s="62" t="s">
         <v>342</v>
       </c>
-      <c r="E206" s="64">
+      <c r="E206" s="62">
         <v>3.85</v>
       </c>
-      <c r="F206" s="64"/>
-      <c r="G206" s="64">
+      <c r="F206" s="62"/>
+      <c r="G206" s="62">
         <f>(E206+E207)/2</f>
         <v>4.2050000000000001</v>
       </c>
-      <c r="H206" s="64">
+      <c r="H206" s="62">
         <f>_xlfn.VAR.S(E206:E207)</f>
         <v>0.25204999999999966</v>
       </c>
@@ -7259,40 +7262,40 @@
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A207" s="66"/>
-      <c r="B207" s="66"/>
-      <c r="C207" s="66" t="s">
+      <c r="A207" s="65"/>
+      <c r="B207" s="64"/>
+      <c r="C207" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D207" s="66"/>
-      <c r="E207" s="66">
+      <c r="D207" s="64"/>
+      <c r="E207" s="64">
         <v>4.5599999999999996</v>
       </c>
-      <c r="F207" s="66"/>
-      <c r="G207" s="66"/>
-      <c r="H207" s="66"/>
+      <c r="F207" s="64"/>
+      <c r="G207" s="64"/>
+      <c r="H207" s="64"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A208" s="68"/>
-      <c r="B208" s="68"/>
-      <c r="C208" s="68" t="s">
+      <c r="A208" s="67"/>
+      <c r="B208" s="66"/>
+      <c r="C208" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="D208" s="68"/>
-      <c r="E208" s="68">
+      <c r="D208" s="66"/>
+      <c r="E208" s="66">
         <v>6.66</v>
       </c>
-      <c r="F208" s="68" t="s">
+      <c r="F208" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="G208" s="68"/>
-      <c r="H208" s="68"/>
+      <c r="G208" s="66"/>
+      <c r="H208" s="66"/>
       <c r="I208">
         <v>6.66</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" s="10">
         <v>1554</v>
       </c>
       <c r="B209" s="9" t="s">
@@ -7313,7 +7316,7 @@
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A210" s="45">
+      <c r="A210" s="83">
         <v>1571</v>
       </c>
       <c r="B210" s="16" t="s">
@@ -7337,13 +7340,13 @@
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A211" s="16"/>
+      <c r="A211" s="83"/>
       <c r="B211" s="16"/>
       <c r="C211" s="16" t="s">
         <v>299</v>
       </c>
       <c r="D211" s="16"/>
-      <c r="E211" s="45">
+      <c r="E211" s="44">
         <f>0.81*2</f>
         <v>1.62</v>
       </c>
@@ -7356,8 +7359,8 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="17">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" s="18">
         <v>1577</v>
       </c>
       <c r="B212" s="17" t="s">
@@ -7375,8 +7378,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" s="10">
         <v>1584</v>
       </c>
       <c r="B213" s="9" t="s">
@@ -7396,8 +7399,8 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214" s="10">
         <v>1588</v>
       </c>
       <c r="B214" s="11" t="s">
@@ -7417,8 +7420,8 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="17">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" s="18">
         <v>1592</v>
       </c>
       <c r="B215" s="17" t="s">
@@ -7436,8 +7439,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216" s="10">
         <v>1626</v>
       </c>
       <c r="B216" s="11" t="s">
@@ -7457,8 +7460,8 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217" s="10">
         <v>1631</v>
       </c>
       <c r="B217" s="9" t="s">
@@ -7478,7 +7481,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>1633</v>
       </c>
@@ -7505,8 +7508,8 @@
         <v>1.175</v>
       </c>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="6"/>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" s="3"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
@@ -7517,8 +7520,8 @@
       <c r="G219" s="6"/>
       <c r="H219" s="6"/>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" s="10">
         <v>1641</v>
       </c>
       <c r="B220" s="11" t="s">
@@ -7538,8 +7541,8 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="19">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" s="32">
         <v>1651</v>
       </c>
       <c r="B221" s="19" t="s">
@@ -7560,7 +7563,7 @@
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A222" s="32">
+      <c r="A222" s="12">
         <v>1664</v>
       </c>
       <c r="B222" s="14" t="s">
@@ -7583,7 +7586,7 @@
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A223" s="15"/>
+      <c r="A223" s="13"/>
       <c r="B223" s="15"/>
       <c r="C223" s="15" t="s">
         <v>299</v>
@@ -7600,7 +7603,7 @@
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A224" s="32">
+      <c r="A224" s="12">
         <v>1667</v>
       </c>
       <c r="B224" s="14" t="s">
@@ -7623,7 +7626,7 @@
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A225" s="15"/>
+      <c r="A225" s="13"/>
       <c r="B225" s="15"/>
       <c r="C225" s="15" t="s">
         <v>299</v>
@@ -7639,8 +7642,8 @@
         <v>9.31</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226" s="10">
         <v>1697</v>
       </c>
       <c r="B226" s="9" t="s">
@@ -7660,8 +7663,8 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A227" s="10">
         <v>1701</v>
       </c>
       <c r="B227" s="9" t="s">
@@ -7681,8 +7684,8 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A228" s="10">
         <v>1704</v>
       </c>
       <c r="B228" s="9" t="s">
@@ -7702,8 +7705,8 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="19">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A229" s="32">
         <v>1706</v>
       </c>
       <c r="B229" s="19" t="s">
@@ -7723,8 +7726,8 @@
         <v>17.12</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A230" s="10">
         <v>1710</v>
       </c>
       <c r="B230" s="9" t="s">
@@ -7744,21 +7747,21 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231" s="40">
         <v>1712</v>
       </c>
-      <c r="B231" s="35" t="s">
+      <c r="B231" s="34" t="s">
         <v>379</v>
       </c>
       <c r="C231" s="26"/>
-      <c r="D231" s="35" t="s">
+      <c r="D231" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="E231" s="42">
+      <c r="E231" s="41">
         <v>9.07</v>
       </c>
-      <c r="F231" s="46" t="s">
+      <c r="F231" s="45" t="s">
         <v>381</v>
       </c>
       <c r="G231" s="26"/>
@@ -7767,20 +7770,20 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="36"/>
-      <c r="B232" s="36"/>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232" s="42"/>
+      <c r="B232" s="35"/>
       <c r="C232" s="27"/>
       <c r="D232" s="27"/>
-      <c r="E232" s="36">
+      <c r="E232" s="35">
         <v>11.9</v>
       </c>
       <c r="F232" s="27"/>
       <c r="G232" s="27"/>
       <c r="H232" s="27"/>
     </row>
-    <row r="233" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A233" s="10">
         <v>1714</v>
       </c>
       <c r="B233" s="9" t="s">
@@ -7800,8 +7803,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234" s="10">
         <v>1715</v>
       </c>
       <c r="B234" s="9" t="s">
@@ -7821,8 +7824,8 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A235" s="10">
         <v>1716</v>
       </c>
       <c r="B235" s="9" t="s">
@@ -7840,8 +7843,8 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A236" s="10">
         <v>1733</v>
       </c>
       <c r="B236" s="9" t="s">
@@ -7861,8 +7864,8 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A237" s="10">
         <v>1734</v>
       </c>
       <c r="B237" s="9" t="s">
@@ -7882,8 +7885,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="19">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A238" s="32">
         <v>1768</v>
       </c>
       <c r="B238" s="19" t="s">
@@ -7903,8 +7906,8 @@
         <v>77.66</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A239" s="10">
         <v>1793</v>
       </c>
       <c r="B239" s="9" t="s">
@@ -7925,7 +7928,7 @@
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A240" s="32">
+      <c r="A240" s="12">
         <v>1805</v>
       </c>
       <c r="B240" s="14" t="s">
@@ -7948,7 +7951,7 @@
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A241" s="15"/>
+      <c r="A241" s="13"/>
       <c r="B241" s="15"/>
       <c r="C241" s="15" t="s">
         <v>299</v>
@@ -7965,66 +7968,66 @@
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A242" s="74">
+      <c r="A242" s="79">
         <v>1821</v>
       </c>
-      <c r="B242" s="75" t="s">
+      <c r="B242" s="71" t="s">
         <v>398</v>
       </c>
-      <c r="C242" s="75" t="s">
+      <c r="C242" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="D242" s="75" t="s">
+      <c r="D242" s="71" t="s">
         <v>399</v>
       </c>
-      <c r="E242" s="75">
+      <c r="E242" s="71">
         <v>1.17</v>
       </c>
-      <c r="F242" s="75"/>
-      <c r="G242" s="75"/>
-      <c r="H242" s="75"/>
+      <c r="F242" s="71"/>
+      <c r="G242" s="71"/>
+      <c r="H242" s="71"/>
       <c r="I242">
         <v>1.17</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A243" s="76"/>
-      <c r="B243" s="76"/>
-      <c r="C243" s="76" t="s">
+      <c r="A243" s="80"/>
+      <c r="B243" s="72"/>
+      <c r="C243" s="72" t="s">
         <v>296</v>
       </c>
-      <c r="D243" s="76"/>
-      <c r="E243" s="76">
+      <c r="D243" s="72"/>
+      <c r="E243" s="72">
         <v>1.64</v>
       </c>
-      <c r="F243" s="76" t="s">
+      <c r="F243" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="G243" s="76"/>
-      <c r="H243" s="76"/>
+      <c r="G243" s="72"/>
+      <c r="H243" s="72"/>
       <c r="I243">
         <v>1.64</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A244" s="77"/>
-      <c r="B244" s="77"/>
-      <c r="C244" s="77" t="s">
+      <c r="A244" s="81"/>
+      <c r="B244" s="73"/>
+      <c r="C244" s="73" t="s">
         <v>299</v>
       </c>
-      <c r="D244" s="77"/>
-      <c r="E244" s="77">
+      <c r="D244" s="73"/>
+      <c r="E244" s="73">
         <v>2.37</v>
       </c>
-      <c r="F244" s="77"/>
-      <c r="G244" s="77"/>
-      <c r="H244" s="77"/>
+      <c r="F244" s="73"/>
+      <c r="G244" s="73"/>
+      <c r="H244" s="73"/>
       <c r="I244">
         <v>2.37</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A245" s="10">
         <v>1822</v>
       </c>
       <c r="B245" s="11" t="s">
@@ -8044,8 +8047,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A246" s="10">
         <v>1830</v>
       </c>
       <c r="B246" s="9" t="s">
@@ -8065,8 +8068,8 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A247" s="10">
         <v>1838</v>
       </c>
       <c r="B247" s="9" t="s">
@@ -8087,7 +8090,7 @@
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A248" s="32">
+      <c r="A248" s="12">
         <v>1841</v>
       </c>
       <c r="B248" s="14" t="s">
@@ -8110,7 +8113,7 @@
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A249" s="15"/>
+      <c r="A249" s="13"/>
       <c r="B249" s="15"/>
       <c r="C249" s="15" t="s">
         <v>298</v>
@@ -8126,8 +8129,8 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="19">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A250" s="32">
         <v>1845</v>
       </c>
       <c r="B250" s="19" t="s">
@@ -8147,8 +8150,8 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A251" s="10">
         <v>1857</v>
       </c>
       <c r="B251" s="9" t="s">
@@ -8168,8 +8171,8 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A252" s="10">
         <v>1863</v>
       </c>
       <c r="B252" s="9" t="s">
@@ -8189,8 +8192,8 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A253" s="10">
         <v>1898</v>
       </c>
       <c r="B253" s="9" t="s">
@@ -8211,7 +8214,7 @@
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A254" s="32">
+      <c r="A254" s="12">
         <v>1901</v>
       </c>
       <c r="B254" s="14" t="s">
@@ -8234,7 +8237,7 @@
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A255" s="15"/>
+      <c r="A255" s="13"/>
       <c r="B255" s="15"/>
       <c r="C255" s="15" t="s">
         <v>299</v>
@@ -8250,8 +8253,8 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A256" s="10">
         <v>1904</v>
       </c>
       <c r="B256" s="9" t="s">
@@ -8271,84 +8274,84 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="47">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A257" s="46">
         <v>1912</v>
       </c>
-      <c r="B257" s="47" t="s">
+      <c r="B257" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="C257" s="47"/>
-      <c r="D257" s="47" t="s">
+      <c r="C257" s="46"/>
+      <c r="D257" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="E257" s="47"/>
-      <c r="F257" s="47"/>
-      <c r="G257" s="47"/>
-      <c r="H257" s="47"/>
+      <c r="E257" s="46"/>
+      <c r="F257" s="46"/>
+      <c r="G257" s="46"/>
+      <c r="H257" s="46"/>
       <c r="I257" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A258" s="74">
+      <c r="A258" s="79">
         <v>1933</v>
       </c>
-      <c r="B258" s="75" t="s">
+      <c r="B258" s="71" t="s">
         <v>417</v>
       </c>
-      <c r="C258" s="75" t="s">
+      <c r="C258" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="D258" s="75" t="s">
+      <c r="D258" s="71" t="s">
         <v>418</v>
       </c>
-      <c r="E258" s="75">
+      <c r="E258" s="71">
         <v>1.33</v>
       </c>
-      <c r="F258" s="75"/>
-      <c r="G258" s="75"/>
-      <c r="H258" s="75"/>
+      <c r="F258" s="71"/>
+      <c r="G258" s="71"/>
+      <c r="H258" s="71"/>
       <c r="I258">
         <v>1.33</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A259" s="76"/>
-      <c r="B259" s="76"/>
-      <c r="C259" s="76" t="s">
+      <c r="A259" s="80"/>
+      <c r="B259" s="72"/>
+      <c r="C259" s="72" t="s">
         <v>299</v>
       </c>
-      <c r="D259" s="76"/>
-      <c r="E259" s="76">
+      <c r="D259" s="72"/>
+      <c r="E259" s="72">
         <v>2.6</v>
       </c>
-      <c r="F259" s="76"/>
-      <c r="G259" s="76"/>
-      <c r="H259" s="76"/>
+      <c r="F259" s="72"/>
+      <c r="G259" s="72"/>
+      <c r="H259" s="72"/>
       <c r="I259">
         <v>2.6</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A260" s="77"/>
-      <c r="B260" s="77"/>
-      <c r="C260" s="77" t="s">
+      <c r="A260" s="81"/>
+      <c r="B260" s="73"/>
+      <c r="C260" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="D260" s="77"/>
-      <c r="E260" s="77">
+      <c r="D260" s="73"/>
+      <c r="E260" s="73">
         <v>3.9</v>
       </c>
-      <c r="F260" s="77"/>
-      <c r="G260" s="77"/>
-      <c r="H260" s="77"/>
+      <c r="F260" s="73"/>
+      <c r="G260" s="73"/>
+      <c r="H260" s="73"/>
       <c r="I260">
         <v>3.9</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A261" s="10">
         <v>1940</v>
       </c>
       <c r="B261" s="9" t="s">
@@ -8368,8 +8371,8 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A262" s="10">
         <v>1952</v>
       </c>
       <c r="B262" s="9" t="s">
@@ -8389,8 +8392,8 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A263" s="10">
         <v>1956</v>
       </c>
       <c r="B263" s="9" t="s">
@@ -8410,8 +8413,8 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A264" s="10">
         <v>1974</v>
       </c>
       <c r="B264" s="9" t="s">
@@ -8431,8 +8434,8 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A265" s="10">
         <v>1988</v>
       </c>
       <c r="B265" s="9" t="s">
@@ -8452,8 +8455,8 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A266" s="10">
         <v>1989</v>
       </c>
       <c r="B266" s="9" t="s">
@@ -8473,8 +8476,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A267" s="10">
         <v>1991</v>
       </c>
       <c r="B267" s="9" t="s">
@@ -8495,7 +8498,7 @@
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A268" s="32">
+      <c r="A268" s="12">
         <v>1992</v>
       </c>
       <c r="B268" s="14" t="s">
@@ -8518,7 +8521,7 @@
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A269" s="15"/>
+      <c r="A269" s="13"/>
       <c r="B269" s="15"/>
       <c r="C269" s="15" t="s">
         <v>296</v>
@@ -8537,7 +8540,7 @@
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A270" s="32">
+      <c r="A270" s="12">
         <v>1993</v>
       </c>
       <c r="B270" s="14" t="s">
@@ -8560,7 +8563,7 @@
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A271" s="15"/>
+      <c r="A271" s="13"/>
       <c r="B271" s="15"/>
       <c r="C271" s="15" t="s">
         <v>298</v>
@@ -8576,8 +8579,8 @@
         <v>67.7</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A272" s="10">
         <v>1994</v>
       </c>
       <c r="B272" s="9" t="s">
@@ -8597,8 +8600,8 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A273" s="10">
         <v>1995</v>
       </c>
       <c r="B273" s="9" t="s">
@@ -8618,8 +8621,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A274" s="10">
         <v>2003</v>
       </c>
       <c r="B274" s="9" t="s">
@@ -8639,8 +8642,8 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A275" s="10">
         <v>2004</v>
       </c>
       <c r="B275" s="9" t="s">
@@ -8660,8 +8663,8 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="17">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A276" s="18">
         <v>2020</v>
       </c>
       <c r="B276" s="17" t="s">
@@ -8679,8 +8682,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A277" s="10">
         <v>2027</v>
       </c>
       <c r="B277" s="9" t="s">
@@ -8700,8 +8703,8 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A278" s="10">
         <v>2033</v>
       </c>
       <c r="B278" s="9" t="s">
@@ -8721,8 +8724,8 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A279" s="10">
         <v>2034</v>
       </c>
       <c r="B279" s="9" t="s">
@@ -8742,8 +8745,8 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="19">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A280" s="32">
         <v>2096</v>
       </c>
       <c r="B280" s="19" t="s">
@@ -8763,7 +8766,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>2098</v>
       </c>
@@ -8794,8 +8797,8 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="6"/>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A282" s="3"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
       <c r="D282" s="6"/>
@@ -8808,8 +8811,8 @@
       <c r="G282" s="6"/>
       <c r="H282" s="6"/>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A283" s="10">
         <v>2100</v>
       </c>
       <c r="B283" s="11" t="s">
@@ -8829,8 +8832,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A284" s="10">
         <v>2101</v>
       </c>
       <c r="B284" s="11" t="s">
@@ -8850,8 +8853,8 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A285" s="10">
         <v>2105</v>
       </c>
       <c r="B285" s="11" t="s">
@@ -8871,7 +8874,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>2106</v>
       </c>
@@ -8900,8 +8903,8 @@
         <v>1.5149999999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="6"/>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A287" s="3"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
       <c r="D287" s="6"/>
@@ -8914,8 +8917,8 @@
       <c r="G287" s="6"/>
       <c r="H287" s="6"/>
     </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A288" s="10">
         <v>2115</v>
       </c>
       <c r="B288" s="11" t="s">
@@ -8935,8 +8938,8 @@
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A289" s="10">
         <v>2117</v>
       </c>
       <c r="B289" s="11" t="s">
@@ -8957,7 +8960,7 @@
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A290" s="32">
+      <c r="A290" s="12">
         <v>2118</v>
       </c>
       <c r="B290" s="14" t="s">
@@ -8982,7 +8985,7 @@
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A291" s="15"/>
+      <c r="A291" s="13"/>
       <c r="B291" s="15"/>
       <c r="C291" s="15" t="s">
         <v>299</v>
@@ -8998,8 +9001,8 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A292" s="10">
         <v>2119</v>
       </c>
       <c r="B292" s="11" t="s">
@@ -9019,8 +9022,8 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="19">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A293" s="32">
         <v>2120</v>
       </c>
       <c r="B293" s="19" t="s">
@@ -9040,8 +9043,8 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A294" s="10">
         <v>2121</v>
       </c>
       <c r="B294" s="9" t="s">
@@ -9061,8 +9064,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A295" s="10">
         <v>2122</v>
       </c>
       <c r="B295" s="9" t="s">
@@ -9082,8 +9085,8 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A296" s="10">
         <v>2123</v>
       </c>
       <c r="B296" s="9" t="s">
@@ -9103,8 +9106,8 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A297" s="10">
         <v>2126</v>
       </c>
       <c r="B297" s="9" t="s">
@@ -9124,8 +9127,8 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="19">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A298" s="32">
         <v>2127</v>
       </c>
       <c r="B298" s="19" t="s">
@@ -9145,7 +9148,7 @@
         <v>4.8099999999999996</v>
       </c>
     </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>2128</v>
       </c>
@@ -9166,16 +9169,16 @@
         <f>(E299+E300)/2</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="H299" s="49">
+      <c r="H299" s="48">
         <f>_xlfn.VAR.S(E299:E300)</f>
         <v>1.2799999999999994</v>
       </c>
-      <c r="I299" s="54">
+      <c r="I299" s="53">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="6"/>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A300" s="3"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6" t="s">
         <v>299</v>
@@ -9188,8 +9191,8 @@
       <c r="G300" s="6"/>
       <c r="H300" s="6"/>
     </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A301" s="10">
         <v>2131</v>
       </c>
       <c r="B301" s="9" t="s">
@@ -9209,8 +9212,8 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A302" s="10">
         <v>2133</v>
       </c>
       <c r="B302" s="9" t="s">
@@ -9230,8 +9233,8 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A303" s="10">
         <v>2136</v>
       </c>
       <c r="B303" s="11" t="s">
@@ -9251,8 +9254,8 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A304" s="10">
         <v>2140</v>
       </c>
       <c r="B304" s="9" t="s">
@@ -9272,8 +9275,8 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="19">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A305" s="32">
         <v>2141</v>
       </c>
       <c r="B305" s="19" t="s">
@@ -9293,8 +9296,8 @@
         <v>120.2</v>
       </c>
     </row>
-    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A306" s="10">
         <v>2142</v>
       </c>
       <c r="B306" s="9" t="s">
@@ -9314,8 +9317,8 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="17">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A307" s="18">
         <v>2144</v>
       </c>
       <c r="B307" s="17" t="s">
@@ -9333,8 +9336,8 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A308" s="10">
         <v>2145</v>
       </c>
       <c r="B308" s="9" t="s">
@@ -9354,8 +9357,8 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A309" s="10">
         <v>2147</v>
       </c>
       <c r="B309" s="9" t="s">
@@ -9375,8 +9378,8 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="17">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A310" s="18">
         <v>2157</v>
       </c>
       <c r="B310" s="17" t="s">
@@ -9394,8 +9397,8 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="19">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A311" s="32">
         <v>2159</v>
       </c>
       <c r="B311" s="19" t="s">
@@ -9415,8 +9418,8 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A312" s="10">
         <v>2170</v>
       </c>
       <c r="B312" s="9" t="s">
@@ -9437,7 +9440,7 @@
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A313" s="32">
+      <c r="A313" s="12">
         <v>2172</v>
       </c>
       <c r="B313" s="14" t="s">
@@ -9460,7 +9463,7 @@
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A314" s="15"/>
+      <c r="A314" s="13"/>
       <c r="B314" s="15"/>
       <c r="C314" s="15" t="s">
         <v>299</v>
@@ -9477,7 +9480,7 @@
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A315" s="32">
+      <c r="A315" s="12">
         <v>2180</v>
       </c>
       <c r="B315" s="14" t="s">
@@ -9500,7 +9503,7 @@
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A316" s="15"/>
+      <c r="A316" s="13"/>
       <c r="B316" s="15"/>
       <c r="C316" s="15" t="s">
         <v>298</v>
@@ -9516,8 +9519,8 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A317" s="10">
         <v>2185</v>
       </c>
       <c r="B317" s="9" t="s">
@@ -9537,8 +9540,8 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A318" s="10">
         <v>2186</v>
       </c>
       <c r="B318" s="9" t="s">
@@ -9558,8 +9561,8 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A319" s="10">
         <v>2190</v>
       </c>
       <c r="B319" s="9" t="s">
@@ -9579,8 +9582,8 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A320" s="10">
         <v>2192</v>
       </c>
       <c r="B320" s="9" t="s">
@@ -9600,8 +9603,8 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A321" s="10">
         <v>2194</v>
       </c>
       <c r="B321" s="9" t="s">
@@ -9619,8 +9622,8 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A322" s="10">
         <v>2199</v>
       </c>
       <c r="B322" s="9" t="s">
@@ -9638,45 +9641,45 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="50">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A323" s="84">
         <v>2201</v>
       </c>
-      <c r="B323" s="50" t="s">
+      <c r="B323" s="49" t="s">
         <v>524</v>
       </c>
-      <c r="C323" s="50"/>
-      <c r="D323" s="50" t="s">
+      <c r="C323" s="49"/>
+      <c r="D323" s="49" t="s">
         <v>649</v>
       </c>
-      <c r="E323" s="50"/>
-      <c r="F323" s="51">
+      <c r="E323" s="49"/>
+      <c r="F323" s="50">
         <v>4</v>
       </c>
-      <c r="G323" s="51" t="s">
+      <c r="G323" s="50" t="s">
         <v>767</v>
       </c>
-      <c r="H323" s="50"/>
+      <c r="H323" s="49"/>
       <c r="I323" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="52"/>
-      <c r="B324" s="52"/>
-      <c r="C324" s="52"/>
-      <c r="D324" s="52"/>
-      <c r="E324" s="52"/>
-      <c r="F324" s="53">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A324" s="85"/>
+      <c r="B324" s="51"/>
+      <c r="C324" s="51"/>
+      <c r="D324" s="51"/>
+      <c r="E324" s="51"/>
+      <c r="F324" s="52">
         <v>8.02</v>
       </c>
-      <c r="G324" s="53" t="s">
+      <c r="G324" s="52" t="s">
         <v>766</v>
       </c>
-      <c r="H324" s="52"/>
-    </row>
-    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="9">
+      <c r="H324" s="51"/>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A325" s="10">
         <v>2208</v>
       </c>
       <c r="B325" s="9" t="s">
@@ -9694,8 +9697,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A326" s="10">
         <v>2217</v>
       </c>
       <c r="B326" s="9" t="s">
@@ -9716,7 +9719,7 @@
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A327" s="32">
+      <c r="A327" s="12">
         <v>2219</v>
       </c>
       <c r="B327" s="14" t="s">
@@ -9739,7 +9742,7 @@
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A328" s="15"/>
+      <c r="A328" s="13"/>
       <c r="B328" s="15"/>
       <c r="C328" s="15" t="s">
         <v>296</v>
@@ -9757,7 +9760,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" s="10">
         <v>2230</v>
       </c>
@@ -9776,7 +9779,7 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>2231</v>
       </c>
@@ -9797,16 +9800,16 @@
         <f>(E330+E331)/2</f>
         <v>8.9750000000000014</v>
       </c>
-      <c r="H330" s="49">
+      <c r="H330" s="48">
         <f>_xlfn.VAR.S(E330:E331)</f>
         <v>3.5112499999999613</v>
       </c>
-      <c r="I330" s="54">
+      <c r="I330" s="53">
         <v>8.9749999999999996</v>
       </c>
     </row>
-    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="6"/>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A331" s="3"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
       <c r="D331" s="6"/>
@@ -9819,59 +9822,59 @@
       <c r="G331" s="6"/>
       <c r="H331" s="6"/>
     </row>
-    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="56">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A332" s="55">
         <v>2235</v>
       </c>
-      <c r="B332" s="56" t="s">
+      <c r="B332" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="C332" s="56"/>
-      <c r="D332" s="56" t="s">
+      <c r="C332" s="55"/>
+      <c r="D332" s="55" t="s">
         <v>655</v>
       </c>
-      <c r="E332" s="56">
+      <c r="E332" s="55">
         <v>38.9</v>
       </c>
-      <c r="F332" s="56"/>
-      <c r="G332" s="56">
+      <c r="F332" s="55"/>
+      <c r="G332" s="55">
         <f>(E332+E333+E334)/3</f>
         <v>43.453333333333326</v>
       </c>
-      <c r="H332" s="49">
+      <c r="H332" s="48">
         <f>_xlfn.VAR.S(E332:E334)</f>
         <v>17.890533333333334</v>
       </c>
-      <c r="I332" s="55">
+      <c r="I332" s="54">
         <v>43.453000000000003</v>
       </c>
     </row>
-    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="57"/>
-      <c r="B333" s="57"/>
-      <c r="C333" s="57"/>
-      <c r="D333" s="57"/>
-      <c r="E333" s="57">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A333" s="56"/>
+      <c r="B333" s="56"/>
+      <c r="C333" s="56"/>
+      <c r="D333" s="56"/>
+      <c r="E333" s="56">
         <v>44.2</v>
       </c>
-      <c r="F333" s="58"/>
-      <c r="G333" s="57"/>
-      <c r="H333" s="57"/>
-    </row>
-    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="59"/>
-      <c r="B334" s="59"/>
-      <c r="C334" s="59"/>
-      <c r="D334" s="59"/>
-      <c r="E334" s="59">
+      <c r="F333" s="57"/>
+      <c r="G333" s="56"/>
+      <c r="H333" s="56"/>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A334" s="58"/>
+      <c r="B334" s="58"/>
+      <c r="C334" s="58"/>
+      <c r="D334" s="58"/>
+      <c r="E334" s="58">
         <v>47.26</v>
       </c>
-      <c r="F334" s="60"/>
-      <c r="G334" s="59"/>
-      <c r="H334" s="59"/>
-    </row>
-    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="9">
+      <c r="F334" s="59"/>
+      <c r="G334" s="58"/>
+      <c r="H334" s="58"/>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A335" s="10">
         <v>2236</v>
       </c>
       <c r="B335" s="9" t="s">
@@ -9889,7 +9892,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>2237</v>
       </c>
@@ -9908,16 +9911,16 @@
         <f>(E336+E337)/2</f>
         <v>45.870000000000005</v>
       </c>
-      <c r="H336" s="49">
+      <c r="H336" s="48">
         <f>_xlfn.VAR.S(E336:E337)</f>
         <v>3.7538000000000054</v>
       </c>
-      <c r="I336" s="54">
+      <c r="I336" s="53">
         <v>45.87</v>
       </c>
     </row>
-    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="6"/>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A337" s="3"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
       <c r="D337" s="6"/>
@@ -9928,8 +9931,8 @@
       <c r="G337" s="6"/>
       <c r="H337" s="6"/>
     </row>
-    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A338" s="10">
         <v>2240</v>
       </c>
       <c r="B338" s="9" t="s">
@@ -9947,8 +9950,8 @@
         <v>54.94</v>
       </c>
     </row>
-    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A339" s="10">
         <v>2242</v>
       </c>
       <c r="B339" s="9" t="s">
@@ -9966,7 +9969,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="10">
         <v>2244</v>
       </c>
@@ -9985,8 +9988,8 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A341" s="10">
         <v>2245</v>
       </c>
       <c r="B341" s="9" t="s">
@@ -10004,8 +10007,8 @@
         <v>45.96</v>
       </c>
     </row>
-    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A342" s="10">
         <v>2249</v>
       </c>
       <c r="B342" s="9" t="s">
@@ -10023,8 +10026,8 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A343" s="10">
         <v>2251</v>
       </c>
       <c r="B343" s="9" t="s">
@@ -10042,8 +10045,8 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A344" s="10">
         <v>2252</v>
       </c>
       <c r="B344" s="9" t="s">
@@ -10061,8 +10064,8 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A345" s="10">
         <v>2253</v>
       </c>
       <c r="B345" s="9" t="s">
@@ -10080,8 +10083,8 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A346" s="10">
         <v>2255</v>
       </c>
       <c r="B346" s="9" t="s">
@@ -10101,8 +10104,8 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A347" s="10">
         <v>2257</v>
       </c>
       <c r="B347" s="9" t="s">
@@ -10120,8 +10123,8 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="9">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A348" s="10">
         <v>2258</v>
       </c>
       <c r="B348" s="9" t="s">
@@ -10139,8 +10142,8 @@
         <v>13.74</v>
       </c>
     </row>
-    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="9">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A349" s="10">
         <v>2259</v>
       </c>
       <c r="B349" s="9" t="s">
@@ -10158,8 +10161,8 @@
         <v>22.12</v>
       </c>
     </row>
-    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A350" s="10">
         <v>2266</v>
       </c>
       <c r="B350" s="9" t="s">
@@ -10179,8 +10182,8 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="9">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A351" s="10">
         <v>2273</v>
       </c>
       <c r="B351" s="9" t="s">
@@ -10200,7 +10203,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>2276</v>
       </c>
@@ -10219,7 +10222,7 @@
         <f>(E352+E353)/2</f>
         <v>9.82</v>
       </c>
-      <c r="H352" s="49">
+      <c r="H352" s="48">
         <f>_xlfn.VAR.S(E352:E353)</f>
         <v>1.9208000000000016</v>
       </c>
@@ -10227,8 +10230,8 @@
         <v>9.82</v>
       </c>
     </row>
-    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="6"/>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A353" s="3"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
       <c r="D353" s="6"/>
@@ -10239,8 +10242,8 @@
       <c r="G353" s="6"/>
       <c r="H353" s="6"/>
     </row>
-    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="9">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A354" s="10">
         <v>2277</v>
       </c>
       <c r="B354" s="9" t="s">
@@ -10260,8 +10263,8 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A355" s="10">
         <v>2281</v>
       </c>
       <c r="B355" s="9" t="s">
@@ -10279,8 +10282,8 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="9">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A356" s="10">
         <v>2282</v>
       </c>
       <c r="B356" s="9" t="s">
@@ -10300,8 +10303,8 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="9">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A357" s="10">
         <v>2284</v>
       </c>
       <c r="B357" s="9" t="s">
@@ -10319,8 +10322,8 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="9">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A358" s="10">
         <v>2285</v>
       </c>
       <c r="B358" s="9" t="s">
@@ -10338,8 +10341,8 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="9">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A359" s="10">
         <v>2286</v>
       </c>
       <c r="B359" s="9" t="s">
@@ -10357,8 +10360,8 @@
         <v>19.66</v>
       </c>
     </row>
-    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="9">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A360" s="10">
         <v>2287</v>
       </c>
       <c r="B360" s="9" t="s">
@@ -10376,7 +10379,7 @@
         <v>16.88</v>
       </c>
     </row>
-    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" s="10">
         <v>2291</v>
       </c>
@@ -10397,8 +10400,8 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="9">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A362" s="10">
         <v>2293</v>
       </c>
       <c r="B362" s="9" t="s">
@@ -10416,8 +10419,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="9">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A363" s="10">
         <v>2308</v>
       </c>
       <c r="B363" s="9" t="s">
@@ -10435,8 +10438,8 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="9">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A364" s="10">
         <v>2311</v>
       </c>
       <c r="B364" s="9" t="s">
@@ -10454,8 +10457,8 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="9">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A365" s="10">
         <v>2313</v>
       </c>
       <c r="B365" s="9" t="s">
@@ -10473,8 +10476,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="9">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A366" s="10">
         <v>2314</v>
       </c>
       <c r="B366" s="9" t="s">
@@ -10492,8 +10495,8 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="9">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A367" s="10">
         <v>2327</v>
       </c>
       <c r="B367" s="9" t="s">
@@ -10513,8 +10516,8 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="9">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A368" s="10">
         <v>2348</v>
       </c>
       <c r="B368" s="9" t="s">
@@ -10533,7 +10536,7 @@
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A369" s="32">
+      <c r="A369" s="12">
         <v>2361</v>
       </c>
       <c r="B369" s="14" t="s">
@@ -10556,7 +10559,7 @@
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A370" s="15"/>
+      <c r="A370" s="13"/>
       <c r="B370" s="15"/>
       <c r="C370" s="15" t="s">
         <v>770</v>
@@ -10572,7 +10575,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>2376</v>
       </c>
@@ -10591,7 +10594,7 @@
         <f>(E371+E372)/2</f>
         <v>1.2450000000000001</v>
       </c>
-      <c r="H371" s="49">
+      <c r="H371" s="48">
         <f>_xlfn.VAR.S(E371:E372)</f>
         <v>0.68445</v>
       </c>
@@ -10599,8 +10602,8 @@
         <v>1.2450000000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="6"/>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A372" s="3"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
       <c r="D372" s="6"/>
@@ -10611,8 +10614,8 @@
       <c r="G372" s="6"/>
       <c r="H372" s="6"/>
     </row>
-    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="9">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A373" s="10">
         <v>2408</v>
       </c>
       <c r="B373" s="9" t="s">
@@ -10630,8 +10633,8 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="9">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A374" s="10">
         <v>2414</v>
       </c>
       <c r="B374" s="9" t="s">
@@ -10651,8 +10654,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="9">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A375" s="10">
         <v>2416</v>
       </c>
       <c r="B375" s="9" t="s">
@@ -10670,8 +10673,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="19">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A376" s="32">
         <v>2417</v>
       </c>
       <c r="B376" s="19" t="s">
@@ -10694,8 +10697,8 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A377" s="10">
         <v>2418</v>
       </c>
       <c r="B377" s="9" t="s">
@@ -10713,8 +10716,8 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="9">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A378" s="10">
         <v>2419</v>
       </c>
       <c r="B378" s="29" t="s">
@@ -10732,8 +10735,8 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="9">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A379" s="10">
         <v>2426</v>
       </c>
       <c r="B379" s="9" t="s">
@@ -10753,8 +10756,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="9">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A380" s="10">
         <v>2436</v>
       </c>
       <c r="B380" s="9" t="s">
@@ -10774,7 +10777,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>2450</v>
       </c>
@@ -10793,7 +10796,7 @@
         <f>(E381+E382)/2</f>
         <v>2</v>
       </c>
-      <c r="H381" s="49">
+      <c r="H381" s="48">
         <f>_xlfn.VAR.S(E381:E382)</f>
         <v>1.620000000000001</v>
       </c>
@@ -10801,8 +10804,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="6"/>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A382" s="3"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
       <c r="D382" s="6"/>
@@ -10814,7 +10817,7 @@
       <c r="H382" s="6"/>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A383" s="32">
+      <c r="A383" s="12">
         <v>2618</v>
       </c>
       <c r="B383" s="14" t="s">
@@ -10839,7 +10842,7 @@
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A384" s="16"/>
+      <c r="A384" s="83"/>
       <c r="B384" s="16"/>
       <c r="C384" s="16" t="s">
         <v>330</v>
@@ -10861,75 +10864,75 @@
       <c r="A385" s="63">
         <v>2672</v>
       </c>
-      <c r="B385" s="64" t="s">
+      <c r="B385" s="62" t="s">
         <v>572</v>
       </c>
-      <c r="C385" s="64" t="s">
+      <c r="C385" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="D385" s="64" t="s">
+      <c r="D385" s="62" t="s">
         <v>698</v>
       </c>
-      <c r="E385" s="64">
+      <c r="E385" s="62">
         <v>1.35</v>
       </c>
-      <c r="F385" s="64" t="s">
+      <c r="F385" s="62" t="s">
         <v>775</v>
       </c>
-      <c r="G385" s="64"/>
-      <c r="H385" s="64"/>
+      <c r="G385" s="62"/>
+      <c r="H385" s="62"/>
       <c r="I385">
         <v>1.35</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A386" s="66"/>
-      <c r="B386" s="66"/>
-      <c r="C386" s="66"/>
-      <c r="D386" s="66"/>
-      <c r="E386" s="80">
+      <c r="A386" s="65"/>
+      <c r="B386" s="64"/>
+      <c r="C386" s="64"/>
+      <c r="D386" s="64"/>
+      <c r="E386" s="74">
         <v>2.29</v>
       </c>
-      <c r="F386" s="80" t="s">
+      <c r="F386" s="74" t="s">
         <v>777</v>
       </c>
-      <c r="G386" s="66"/>
-      <c r="H386" s="66"/>
+      <c r="G386" s="64"/>
+      <c r="H386" s="64"/>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A387" s="66"/>
-      <c r="B387" s="66"/>
-      <c r="C387" s="66" t="s">
+      <c r="A387" s="65"/>
+      <c r="B387" s="64"/>
+      <c r="C387" s="64" t="s">
         <v>299</v>
       </c>
-      <c r="D387" s="66"/>
-      <c r="E387" s="66">
+      <c r="D387" s="64"/>
+      <c r="E387" s="64">
         <v>3.54</v>
       </c>
-      <c r="F387" s="66" t="s">
+      <c r="F387" s="64" t="s">
         <v>776</v>
       </c>
-      <c r="G387" s="66"/>
-      <c r="H387" s="66"/>
+      <c r="G387" s="64"/>
+      <c r="H387" s="64"/>
       <c r="I387">
         <v>3.54</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A388" s="68"/>
-      <c r="B388" s="68"/>
-      <c r="C388" s="68"/>
-      <c r="D388" s="68"/>
-      <c r="E388" s="68">
+      <c r="A388" s="67"/>
+      <c r="B388" s="66"/>
+      <c r="C388" s="66"/>
+      <c r="D388" s="66"/>
+      <c r="E388" s="75">
         <v>4.76</v>
       </c>
-      <c r="F388" s="68" t="s">
+      <c r="F388" s="75" t="s">
         <v>778</v>
       </c>
-      <c r="G388" s="68"/>
-      <c r="H388" s="68"/>
-    </row>
-    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G388" s="66"/>
+      <c r="H388" s="66"/>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>2700</v>
       </c>
@@ -10950,7 +10953,7 @@
         <f>(E389+E390)/2</f>
         <v>17.25</v>
       </c>
-      <c r="H389" s="49">
+      <c r="H389" s="48">
         <f>_xlfn.VAR.S(E389:E390)</f>
         <v>136.125</v>
       </c>
@@ -10958,7 +10961,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390" s="3"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
@@ -10972,8 +10975,8 @@
       <c r="G390" s="6"/>
       <c r="H390" s="6"/>
     </row>
-    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="9">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A391" s="10">
         <v>2702</v>
       </c>
       <c r="B391" s="9" t="s">
@@ -10991,7 +10994,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>2705</v>
       </c>
@@ -11012,7 +11015,7 @@
         <f>(E392+E393)/2</f>
         <v>45.3</v>
       </c>
-      <c r="H392" s="49">
+      <c r="H392" s="48">
         <f>_xlfn.VAR.S(E392:E393)</f>
         <v>169.28000000000065</v>
       </c>
@@ -11020,8 +11023,8 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="6"/>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A393" s="3"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
       <c r="D393" s="6"/>
@@ -11033,7 +11036,7 @@
       <c r="H393" s="6"/>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A394" s="32">
+      <c r="A394" s="12">
         <v>2740</v>
       </c>
       <c r="B394" s="14" t="s">
@@ -11058,7 +11061,7 @@
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A395" s="15"/>
+      <c r="A395" s="13"/>
       <c r="B395" s="15"/>
       <c r="C395" s="15" t="s">
         <v>303</v>
@@ -11077,7 +11080,7 @@
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A396" s="32">
+      <c r="A396" s="12">
         <v>2759</v>
       </c>
       <c r="B396" s="14" t="s">
@@ -11100,7 +11103,7 @@
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A397" s="15"/>
+      <c r="A397" s="13"/>
       <c r="B397" s="15"/>
       <c r="C397" s="15" t="s">
         <v>299</v>
@@ -11116,8 +11119,8 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="9">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A398" s="10">
         <v>2779</v>
       </c>
       <c r="B398" s="9" t="s">
@@ -11137,8 +11140,8 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="17">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A399" s="18">
         <v>2827</v>
       </c>
       <c r="B399" s="17" t="s">
@@ -11157,7 +11160,7 @@
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A400" s="32">
+      <c r="A400" s="12">
         <v>2846</v>
       </c>
       <c r="B400" s="14" t="s">
@@ -11180,7 +11183,7 @@
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A401" s="15"/>
+      <c r="A401" s="13"/>
       <c r="B401" s="15"/>
       <c r="C401" s="15" t="s">
         <v>299</v>
@@ -11197,7 +11200,7 @@
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A402" s="32">
+      <c r="A402" s="12">
         <v>2885</v>
       </c>
       <c r="B402" s="14" t="s">
@@ -11220,7 +11223,7 @@
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A403" s="15"/>
+      <c r="A403" s="13"/>
       <c r="B403" s="15"/>
       <c r="C403" s="15" t="s">
         <v>296</v>
@@ -11239,7 +11242,7 @@
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A404" s="32">
+      <c r="A404" s="12">
         <v>2888</v>
       </c>
       <c r="B404" s="14" t="s">
@@ -11262,7 +11265,7 @@
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A405" s="15"/>
+      <c r="A405" s="13"/>
       <c r="B405" s="15"/>
       <c r="C405" s="15" t="s">
         <v>299</v>
@@ -11278,8 +11281,8 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="17">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A406" s="18">
         <v>3003</v>
       </c>
       <c r="B406" s="17" t="s">
@@ -11297,8 +11300,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A407" s="9">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A407" s="10">
         <v>3006</v>
       </c>
       <c r="B407" s="9" t="s">
@@ -11316,7 +11319,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>3016</v>
       </c>
@@ -11337,7 +11340,7 @@
         <f>(E408+E409+E410+E411)/4</f>
         <v>14.824999999999999</v>
       </c>
-      <c r="H408" s="49">
+      <c r="H408" s="48">
         <f>_xlfn.VAR.S(E408:E411)</f>
         <v>60.162500000000058</v>
       </c>
@@ -11345,8 +11348,8 @@
         <v>14.824999999999999</v>
       </c>
     </row>
-    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="7"/>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A409" s="8"/>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
@@ -11359,8 +11362,8 @@
       <c r="G409" s="7"/>
       <c r="H409" s="7"/>
     </row>
-    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="7"/>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A410" s="8"/>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
@@ -11373,8 +11376,8 @@
       <c r="G410" s="7"/>
       <c r="H410" s="7"/>
     </row>
-    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="6"/>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A411" s="3"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
       <c r="D411" s="6"/>
@@ -11388,7 +11391,7 @@
       <c r="H411" s="6"/>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A412" s="32">
+      <c r="A412" s="12">
         <v>3065</v>
       </c>
       <c r="B412" s="14" t="s">
@@ -11406,12 +11409,12 @@
       <c r="F412" s="14"/>
       <c r="G412" s="14"/>
       <c r="H412" s="14"/>
-      <c r="I412" s="54">
+      <c r="I412" s="53">
         <v>53.25</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A413" s="15"/>
+      <c r="A413" s="13"/>
       <c r="B413" s="15"/>
       <c r="C413" s="15" t="s">
         <v>296</v>
@@ -11429,104 +11432,104 @@
         <v>81</v>
       </c>
     </row>
-    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="35">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A414" s="40">
         <v>3066</v>
       </c>
-      <c r="B414" s="35" t="s">
+      <c r="B414" s="34" t="s">
         <v>587</v>
       </c>
-      <c r="C414" s="35" t="s">
+      <c r="C414" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="D414" s="35" t="s">
+      <c r="D414" s="34" t="s">
         <v>713</v>
       </c>
-      <c r="E414" s="42">
+      <c r="E414" s="41">
         <v>68.75</v>
       </c>
-      <c r="F414" s="42" t="s">
+      <c r="F414" s="41" t="s">
         <v>782</v>
       </c>
-      <c r="G414" s="35"/>
-      <c r="H414" s="35"/>
-    </row>
-    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="36"/>
-      <c r="B415" s="36"/>
-      <c r="C415" s="36" t="s">
+      <c r="G414" s="34"/>
+      <c r="H414" s="34"/>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A415" s="42"/>
+      <c r="B415" s="35"/>
+      <c r="C415" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="D415" s="36"/>
-      <c r="E415" s="36">
+      <c r="D415" s="35"/>
+      <c r="E415" s="35">
         <v>93.1</v>
       </c>
-      <c r="F415" s="36"/>
-      <c r="G415" s="36"/>
-      <c r="H415" s="36"/>
+      <c r="F415" s="35"/>
+      <c r="G415" s="35"/>
+      <c r="H415" s="35"/>
       <c r="I415">
         <v>93.1</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A416" s="74">
+      <c r="A416" s="79">
         <v>3067</v>
       </c>
-      <c r="B416" s="75" t="s">
+      <c r="B416" s="71" t="s">
         <v>588</v>
       </c>
-      <c r="C416" s="75" t="s">
+      <c r="C416" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="D416" s="75" t="s">
+      <c r="D416" s="71" t="s">
         <v>714</v>
       </c>
-      <c r="E416" s="75">
+      <c r="E416" s="71">
         <v>62</v>
       </c>
-      <c r="F416" s="75"/>
-      <c r="G416" s="75"/>
-      <c r="H416" s="75"/>
+      <c r="F416" s="71"/>
+      <c r="G416" s="71"/>
+      <c r="H416" s="71"/>
       <c r="I416">
         <v>62</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A417" s="76"/>
-      <c r="B417" s="76"/>
-      <c r="C417" s="76" t="s">
+      <c r="A417" s="80"/>
+      <c r="B417" s="72"/>
+      <c r="C417" s="72" t="s">
         <v>296</v>
       </c>
-      <c r="D417" s="76"/>
-      <c r="E417" s="76">
+      <c r="D417" s="72"/>
+      <c r="E417" s="72">
         <v>90.4</v>
       </c>
-      <c r="F417" s="76"/>
-      <c r="G417" s="76"/>
-      <c r="H417" s="76"/>
+      <c r="F417" s="72"/>
+      <c r="G417" s="72"/>
+      <c r="H417" s="72"/>
       <c r="I417">
         <v>90.4</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A418" s="77"/>
-      <c r="B418" s="77"/>
-      <c r="C418" s="77" t="s">
+      <c r="A418" s="81"/>
+      <c r="B418" s="73"/>
+      <c r="C418" s="73" t="s">
         <v>299</v>
       </c>
-      <c r="D418" s="77"/>
-      <c r="E418" s="77">
+      <c r="D418" s="73"/>
+      <c r="E418" s="73">
         <v>120.9</v>
       </c>
-      <c r="F418" s="77"/>
-      <c r="G418" s="77"/>
-      <c r="H418" s="77"/>
+      <c r="F418" s="73"/>
+      <c r="G418" s="73"/>
+      <c r="H418" s="73"/>
       <c r="I418">
         <v>120.9</v>
       </c>
     </row>
-    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="9">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A419" s="10">
         <v>3071</v>
       </c>
       <c r="B419" s="9" t="s">
@@ -11546,8 +11549,8 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="9">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A420" s="10">
         <v>3072</v>
       </c>
       <c r="B420" s="9" t="s">
@@ -11565,8 +11568,8 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A421" s="9">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A421" s="10">
         <v>3074</v>
       </c>
       <c r="B421" s="9" t="s">
@@ -11584,8 +11587,8 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A422" s="9">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A422" s="10">
         <v>3075</v>
       </c>
       <c r="B422" s="9" t="s">
@@ -11607,8 +11610,8 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A423" s="9">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A423" s="10">
         <v>3081</v>
       </c>
       <c r="B423" s="9" t="s">
@@ -11626,8 +11629,8 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="9">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A424" s="10">
         <v>3088</v>
       </c>
       <c r="B424" s="9" t="s">
@@ -11645,8 +11648,8 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="9">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A425" s="10">
         <v>3092</v>
       </c>
       <c r="B425" s="9" t="s">
@@ -11665,7 +11668,7 @@
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A426" s="32">
+      <c r="A426" s="12">
         <v>3093</v>
       </c>
       <c r="B426" s="14" t="s">
@@ -11688,7 +11691,7 @@
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A427" s="15"/>
+      <c r="A427" s="13"/>
       <c r="B427" s="15"/>
       <c r="C427" s="15" t="s">
         <v>301</v>
@@ -11704,15 +11707,15 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A428" s="36">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A428" s="42">
         <v>3094</v>
       </c>
-      <c r="B428" s="36" t="s">
+      <c r="B428" s="35" t="s">
         <v>597</v>
       </c>
       <c r="C428" s="27"/>
-      <c r="D428" s="36" t="s">
+      <c r="D428" s="35" t="s">
         <v>723</v>
       </c>
       <c r="E428" s="27"/>
@@ -11723,15 +11726,15 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="36">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A429" s="42">
         <v>3096</v>
       </c>
-      <c r="B429" s="36" t="s">
+      <c r="B429" s="35" t="s">
         <v>599</v>
       </c>
       <c r="C429" s="27"/>
-      <c r="D429" s="36" t="s">
+      <c r="D429" s="35" t="s">
         <v>724</v>
       </c>
       <c r="E429" s="27"/>
@@ -11742,15 +11745,15 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A430" s="36">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A430" s="42">
         <v>3097</v>
       </c>
-      <c r="B430" s="36" t="s">
+      <c r="B430" s="35" t="s">
         <v>598</v>
       </c>
       <c r="C430" s="27"/>
-      <c r="D430" s="36" t="s">
+      <c r="D430" s="35" t="s">
         <v>725</v>
       </c>
       <c r="E430" s="27"/>
@@ -11761,15 +11764,15 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A431" s="36">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A431" s="42">
         <v>3098</v>
       </c>
-      <c r="B431" s="36" t="s">
+      <c r="B431" s="35" t="s">
         <v>600</v>
       </c>
       <c r="C431" s="27"/>
-      <c r="D431" s="36" t="s">
+      <c r="D431" s="35" t="s">
         <v>726</v>
       </c>
       <c r="E431" s="27"/>
@@ -11780,15 +11783,15 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A432" s="36">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A432" s="42">
         <v>3103</v>
       </c>
-      <c r="B432" s="36" t="s">
+      <c r="B432" s="35" t="s">
         <v>601</v>
       </c>
       <c r="C432" s="27"/>
-      <c r="D432" s="36" t="s">
+      <c r="D432" s="35" t="s">
         <v>727</v>
       </c>
       <c r="E432" s="27"/>
@@ -11799,15 +11802,15 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A433" s="36">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A433" s="42">
         <v>3124</v>
       </c>
-      <c r="B433" s="36" t="s">
+      <c r="B433" s="35" t="s">
         <v>602</v>
       </c>
       <c r="C433" s="27"/>
-      <c r="D433" s="36" t="s">
+      <c r="D433" s="35" t="s">
         <v>728</v>
       </c>
       <c r="E433" s="27"/>
@@ -11818,15 +11821,15 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A434" s="36">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A434" s="42">
         <v>3126</v>
       </c>
-      <c r="B434" s="36" t="s">
+      <c r="B434" s="35" t="s">
         <v>603</v>
       </c>
       <c r="C434" s="27"/>
-      <c r="D434" s="36" t="s">
+      <c r="D434" s="35" t="s">
         <v>729</v>
       </c>
       <c r="E434" s="27"/>
@@ -11837,15 +11840,15 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A435" s="36">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A435" s="42">
         <v>3127</v>
       </c>
-      <c r="B435" s="36" t="s">
+      <c r="B435" s="35" t="s">
         <v>604</v>
       </c>
       <c r="C435" s="27"/>
-      <c r="D435" s="36" t="s">
+      <c r="D435" s="35" t="s">
         <v>730</v>
       </c>
       <c r="E435" s="27"/>
@@ -11856,15 +11859,15 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A436" s="36">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A436" s="42">
         <v>3129</v>
       </c>
-      <c r="B436" s="36" t="s">
+      <c r="B436" s="35" t="s">
         <v>605</v>
       </c>
       <c r="C436" s="27"/>
-      <c r="D436" s="36" t="s">
+      <c r="D436" s="35" t="s">
         <v>731</v>
       </c>
       <c r="E436" s="27">
@@ -11877,15 +11880,15 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A437" s="36">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A437" s="42">
         <v>3131</v>
       </c>
-      <c r="B437" s="36" t="s">
+      <c r="B437" s="35" t="s">
         <v>606</v>
       </c>
       <c r="C437" s="27"/>
-      <c r="D437" s="36" t="s">
+      <c r="D437" s="35" t="s">
         <v>732</v>
       </c>
       <c r="E437" s="27"/>
@@ -11896,15 +11899,15 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A438" s="36">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A438" s="42">
         <v>3133</v>
       </c>
-      <c r="B438" s="36" t="s">
+      <c r="B438" s="35" t="s">
         <v>607</v>
       </c>
       <c r="C438" s="27"/>
-      <c r="D438" s="36" t="s">
+      <c r="D438" s="35" t="s">
         <v>733</v>
       </c>
       <c r="E438" s="27"/>
@@ -11915,15 +11918,15 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A439" s="36">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A439" s="42">
         <v>3135</v>
       </c>
-      <c r="B439" s="36" t="s">
+      <c r="B439" s="35" t="s">
         <v>608</v>
       </c>
       <c r="C439" s="27"/>
-      <c r="D439" s="36" t="s">
+      <c r="D439" s="35" t="s">
         <v>734</v>
       </c>
       <c r="E439" s="27"/>
@@ -11934,8 +11937,8 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A440" s="9">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A440" s="10">
         <v>3138</v>
       </c>
       <c r="B440" s="9" t="s">
@@ -11955,15 +11958,15 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A441" s="36">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A441" s="42">
         <v>3139</v>
       </c>
-      <c r="B441" s="36" t="s">
+      <c r="B441" s="35" t="s">
         <v>610</v>
       </c>
       <c r="C441" s="27"/>
-      <c r="D441" s="36" t="s">
+      <c r="D441" s="35" t="s">
         <v>736</v>
       </c>
       <c r="E441" s="27"/>
@@ -11974,15 +11977,15 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A442" s="36">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A442" s="42">
         <v>3140</v>
       </c>
-      <c r="B442" s="36" t="s">
+      <c r="B442" s="35" t="s">
         <v>611</v>
       </c>
       <c r="C442" s="27"/>
-      <c r="D442" s="36" t="s">
+      <c r="D442" s="35" t="s">
         <v>737</v>
       </c>
       <c r="E442" s="27"/>
@@ -11993,7 +11996,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" s="10">
         <v>3141</v>
       </c>
@@ -12014,15 +12017,15 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A444" s="36">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A444" s="42">
         <v>3142</v>
       </c>
-      <c r="B444" s="36" t="s">
+      <c r="B444" s="35" t="s">
         <v>613</v>
       </c>
       <c r="C444" s="27"/>
-      <c r="D444" s="36" t="s">
+      <c r="D444" s="35" t="s">
         <v>674</v>
       </c>
       <c r="E444" s="27"/>
@@ -12033,15 +12036,15 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A445" s="36">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A445" s="42">
         <v>3146</v>
       </c>
-      <c r="B445" s="36" t="s">
+      <c r="B445" s="35" t="s">
         <v>614</v>
       </c>
       <c r="C445" s="27"/>
-      <c r="D445" s="36" t="s">
+      <c r="D445" s="35" t="s">
         <v>739</v>
       </c>
       <c r="E445" s="27"/>
@@ -12052,15 +12055,15 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A446" s="36">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A446" s="42">
         <v>3148</v>
       </c>
-      <c r="B446" s="36" t="s">
+      <c r="B446" s="35" t="s">
         <v>615</v>
       </c>
       <c r="C446" s="27"/>
-      <c r="D446" s="36" t="s">
+      <c r="D446" s="35" t="s">
         <v>740</v>
       </c>
       <c r="E446" s="27"/>
@@ -12071,15 +12074,15 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A447" s="36">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A447" s="42">
         <v>3149</v>
       </c>
-      <c r="B447" s="36" t="s">
+      <c r="B447" s="35" t="s">
         <v>616</v>
       </c>
       <c r="C447" s="27"/>
-      <c r="D447" s="36" t="s">
+      <c r="D447" s="35" t="s">
         <v>682</v>
       </c>
       <c r="E447" s="27"/>
@@ -12090,15 +12093,15 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A448" s="36">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A448" s="42">
         <v>3150</v>
       </c>
-      <c r="B448" s="36" t="s">
+      <c r="B448" s="35" t="s">
         <v>617</v>
       </c>
       <c r="C448" s="27"/>
-      <c r="D448" s="36" t="s">
+      <c r="D448" s="35" t="s">
         <v>741</v>
       </c>
       <c r="E448" s="27"/>
@@ -12109,15 +12112,15 @@
         <v>8.07</v>
       </c>
     </row>
-    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A449" s="36">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A449" s="42">
         <v>3151</v>
       </c>
-      <c r="B449" s="36" t="s">
+      <c r="B449" s="35" t="s">
         <v>618</v>
       </c>
       <c r="C449" s="27"/>
-      <c r="D449" s="36" t="s">
+      <c r="D449" s="35" t="s">
         <v>647</v>
       </c>
       <c r="E449" s="27"/>
@@ -12128,8 +12131,8 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="9">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A450" s="10">
         <v>3155</v>
       </c>
       <c r="B450" s="9" t="s">
@@ -12149,7 +12152,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" s="10">
         <v>3157</v>
       </c>
@@ -12170,17 +12173,17 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="35">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A452" s="40">
         <v>3158</v>
       </c>
-      <c r="B452" s="35" t="s">
+      <c r="B452" s="34" t="s">
         <v>621</v>
       </c>
       <c r="C452" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="D452" s="35" t="s">
+      <c r="D452" s="34" t="s">
         <v>744</v>
       </c>
       <c r="E452" s="26">
@@ -12193,22 +12196,22 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="36"/>
-      <c r="B453" s="36"/>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A453" s="42"/>
+      <c r="B453" s="35"/>
       <c r="C453" s="27"/>
-      <c r="D453" s="36"/>
-      <c r="E453" s="40">
+      <c r="D453" s="35"/>
+      <c r="E453" s="39">
         <v>10.6</v>
       </c>
-      <c r="F453" s="40" t="s">
+      <c r="F453" s="39" t="s">
         <v>783</v>
       </c>
       <c r="G453" s="27"/>
       <c r="H453" s="27"/>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A454" s="32">
+      <c r="A454" s="12">
         <v>3159</v>
       </c>
       <c r="B454" s="14" t="s">
@@ -12231,7 +12234,7 @@
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A455" s="15"/>
+      <c r="A455" s="13"/>
       <c r="B455" s="15"/>
       <c r="C455" s="15" t="s">
         <v>299</v>
@@ -12247,8 +12250,8 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A456" s="9">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A456" s="10">
         <v>3162</v>
       </c>
       <c r="B456" s="9" t="s">
@@ -12268,8 +12271,8 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A457" s="9">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A457" s="10">
         <v>3163</v>
       </c>
       <c r="B457" s="9" t="s">
@@ -12289,8 +12292,8 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A458" s="9">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A458" s="10">
         <v>3164</v>
       </c>
       <c r="B458" s="9" t="s">
@@ -12310,8 +12313,8 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A459" s="9">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A459" s="10">
         <v>3166</v>
       </c>
       <c r="B459" s="9" t="s">
@@ -12331,8 +12334,8 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A460" s="9">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A460" s="10">
         <v>3169</v>
       </c>
       <c r="B460" s="9" t="s">
@@ -12352,8 +12355,8 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A461" s="9">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A461" s="10">
         <v>3170</v>
       </c>
       <c r="B461" s="9" t="s">
@@ -12373,8 +12376,8 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A462" s="9">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A462" s="10">
         <v>3171</v>
       </c>
       <c r="B462" s="9" t="s">
@@ -12392,8 +12395,8 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A463" s="19">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A463" s="32">
         <v>3172</v>
       </c>
       <c r="B463" s="19" t="s">
@@ -12413,8 +12416,8 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="9">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A464" s="10">
         <v>3175</v>
       </c>
       <c r="B464" s="9" t="s">
@@ -12432,15 +12435,15 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A465" s="36">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A465" s="42">
         <v>3176</v>
       </c>
-      <c r="B465" s="36" t="s">
+      <c r="B465" s="35" t="s">
         <v>632</v>
       </c>
       <c r="C465" s="27"/>
-      <c r="D465" s="36" t="s">
+      <c r="D465" s="35" t="s">
         <v>648</v>
       </c>
       <c r="E465" s="27"/>
@@ -12451,15 +12454,15 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A466" s="36">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A466" s="42">
         <v>3180</v>
       </c>
-      <c r="B466" s="36" t="s">
+      <c r="B466" s="35" t="s">
         <v>633</v>
       </c>
       <c r="C466" s="27"/>
-      <c r="D466" s="36" t="s">
+      <c r="D466" s="35" t="s">
         <v>755</v>
       </c>
       <c r="E466" s="27"/>
@@ -12470,15 +12473,15 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A467" s="36">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A467" s="42">
         <v>3190</v>
       </c>
-      <c r="B467" s="36" t="s">
+      <c r="B467" s="35" t="s">
         <v>634</v>
       </c>
       <c r="C467" s="27"/>
-      <c r="D467" s="36" t="s">
+      <c r="D467" s="35" t="s">
         <v>756</v>
       </c>
       <c r="E467" s="27"/>
@@ -12489,15 +12492,15 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A468" s="36">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A468" s="42">
         <v>3192</v>
       </c>
-      <c r="B468" s="36" t="s">
+      <c r="B468" s="35" t="s">
         <v>635</v>
       </c>
       <c r="C468" s="27"/>
-      <c r="D468" s="36" t="s">
+      <c r="D468" s="35" t="s">
         <v>757</v>
       </c>
       <c r="E468" s="27"/>
@@ -12508,15 +12511,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A469" s="36">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A469" s="42">
         <v>3193</v>
       </c>
-      <c r="B469" s="36" t="s">
+      <c r="B469" s="35" t="s">
         <v>636</v>
       </c>
       <c r="C469" s="27"/>
-      <c r="D469" s="36" t="s">
+      <c r="D469" s="35" t="s">
         <v>758</v>
       </c>
       <c r="E469" s="27"/>
@@ -12527,15 +12530,15 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A470" s="36">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A470" s="42">
         <v>3194</v>
       </c>
-      <c r="B470" s="36" t="s">
+      <c r="B470" s="35" t="s">
         <v>637</v>
       </c>
       <c r="C470" s="27"/>
-      <c r="D470" s="36" t="s">
+      <c r="D470" s="35" t="s">
         <v>759</v>
       </c>
       <c r="E470" s="27"/>
@@ -12546,11 +12549,11 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A471" s="36">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A471" s="42">
         <v>3195</v>
       </c>
-      <c r="B471" s="36" t="s">
+      <c r="B471" s="35" t="s">
         <v>638</v>
       </c>
       <c r="C471" s="27"/>
@@ -12565,11 +12568,11 @@
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A472" s="36">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A472" s="42">
         <v>3197</v>
       </c>
-      <c r="B472" s="36" t="s">
+      <c r="B472" s="35" t="s">
         <v>640</v>
       </c>
       <c r="C472" s="27"/>
@@ -12584,11 +12587,11 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A473" s="36">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A473" s="42">
         <v>3210</v>
       </c>
-      <c r="B473" s="36" t="s">
+      <c r="B473" s="35" t="s">
         <v>639</v>
       </c>
       <c r="C473" s="27"/>
@@ -12605,11 +12608,11 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A474" s="36">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A474" s="42">
         <v>3215</v>
       </c>
-      <c r="B474" s="36" t="s">
+      <c r="B474" s="35" t="s">
         <v>641</v>
       </c>
       <c r="C474" s="27"/>
@@ -12624,11 +12627,11 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A475" s="36">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A475" s="42">
         <v>3218</v>
       </c>
-      <c r="B475" s="36" t="s">
+      <c r="B475" s="35" t="s">
         <v>642</v>
       </c>
       <c r="C475" s="27"/>
@@ -12643,11 +12646,11 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A476" s="36">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A476" s="42">
         <v>3219</v>
       </c>
-      <c r="B476" s="36" t="s">
+      <c r="B476" s="35" t="s">
         <v>643</v>
       </c>
       <c r="C476" s="27"/>
